--- a/data/raw/election/voters-age-sex-education/2023/Hatay.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Hatay.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-voters-age-sex-education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13155" windowHeight="8175"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="30-07-2024-16:58:47-17083866661" sheetId="2" r:id="rId1"/>
+    <sheet name="18-10-2024-16:42:26-47074369413" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="44">
   <si>
     <t>Hatay</t>
   </si>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>Yayladağı</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -678,7 +684,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -692,6 +698,12 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
@@ -699,6 +711,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -1026,10 +1041,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N394"/>
+  <dimension ref="A1:N396"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A362" workbookViewId="0">
-      <selection activeCell="A395" sqref="A395:A396"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1045,52 +1060,52 @@
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.140625" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1144,11 +1159,11 @@
       <c r="F6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="4">
-        <v>1.879</v>
-      </c>
-      <c r="H6" s="4">
-        <v>1.6</v>
+      <c r="G6" s="5">
+        <v>1879</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1600</v>
       </c>
       <c r="I6" s="4">
         <v>300</v>
@@ -1162,8 +1177,8 @@
       <c r="L6" s="4">
         <v>73</v>
       </c>
-      <c r="M6" s="5">
-        <v>3.8959999999999999</v>
+      <c r="M6" s="6">
+        <v>3896</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1183,11 +1198,11 @@
       <c r="F7" s="4">
         <v>1</v>
       </c>
-      <c r="G7" s="4">
-        <v>1.639</v>
-      </c>
-      <c r="H7" s="4">
-        <v>1.4510000000000001</v>
+      <c r="G7" s="5">
+        <v>1639</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1451</v>
       </c>
       <c r="I7" s="4">
         <v>348</v>
@@ -1201,8 +1216,8 @@
       <c r="L7" s="4">
         <v>29</v>
       </c>
-      <c r="M7" s="5">
-        <v>3.5430000000000001</v>
+      <c r="M7" s="6">
+        <v>3543</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1224,8 +1239,8 @@
       <c r="F8" s="4">
         <v>32</v>
       </c>
-      <c r="G8" s="4">
-        <v>1.131</v>
+      <c r="G8" s="5">
+        <v>1131</v>
       </c>
       <c r="H8" s="4">
         <v>495</v>
@@ -1242,8 +1257,8 @@
       <c r="L8" s="4">
         <v>32</v>
       </c>
-      <c r="M8" s="5">
-        <v>2.2559999999999998</v>
+      <c r="M8" s="6">
+        <v>2256</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1281,8 +1296,8 @@
       <c r="L9" s="4">
         <v>44</v>
       </c>
-      <c r="M9" s="5">
-        <v>1.784</v>
+      <c r="M9" s="6">
+        <v>1784</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1322,8 +1337,8 @@
       <c r="L10" s="4">
         <v>51</v>
       </c>
-      <c r="M10" s="5">
-        <v>1.9450000000000001</v>
+      <c r="M10" s="6">
+        <v>1945</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1361,8 +1376,8 @@
       <c r="L11" s="4">
         <v>43</v>
       </c>
-      <c r="M11" s="5">
-        <v>1.5429999999999999</v>
+      <c r="M11" s="6">
+        <v>1543</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1402,8 +1417,8 @@
       <c r="L12" s="4">
         <v>67</v>
       </c>
-      <c r="M12" s="5">
-        <v>1.7390000000000001</v>
+      <c r="M12" s="6">
+        <v>1739</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1441,8 +1456,8 @@
       <c r="L13" s="4">
         <v>46</v>
       </c>
-      <c r="M13" s="5">
-        <v>1.5669999999999999</v>
+      <c r="M13" s="6">
+        <v>1567</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1482,8 +1497,8 @@
       <c r="L14" s="4">
         <v>56</v>
       </c>
-      <c r="M14" s="5">
-        <v>1.663</v>
+      <c r="M14" s="6">
+        <v>1663</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1521,8 +1536,8 @@
       <c r="L15" s="4">
         <v>58</v>
       </c>
-      <c r="M15" s="5">
-        <v>1.63</v>
+      <c r="M15" s="6">
+        <v>1630</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1562,8 +1577,8 @@
       <c r="L16" s="4">
         <v>36</v>
       </c>
-      <c r="M16" s="5">
-        <v>1.583</v>
+      <c r="M16" s="6">
+        <v>1583</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1601,8 +1616,8 @@
       <c r="L17" s="4">
         <v>46</v>
       </c>
-      <c r="M17" s="5">
-        <v>1.397</v>
+      <c r="M17" s="6">
+        <v>1397</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1642,8 +1657,8 @@
       <c r="L18" s="4">
         <v>42</v>
       </c>
-      <c r="M18" s="5">
-        <v>1.5740000000000001</v>
+      <c r="M18" s="6">
+        <v>1574</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1681,8 +1696,8 @@
       <c r="L19" s="4">
         <v>50</v>
       </c>
-      <c r="M19" s="5">
-        <v>1.6359999999999999</v>
+      <c r="M19" s="6">
+        <v>1636</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1722,8 +1737,8 @@
       <c r="L20" s="4">
         <v>47</v>
       </c>
-      <c r="M20" s="5">
-        <v>1.516</v>
+      <c r="M20" s="6">
+        <v>1516</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1761,8 +1776,8 @@
       <c r="L21" s="4">
         <v>17</v>
       </c>
-      <c r="M21" s="5">
-        <v>1.411</v>
+      <c r="M21" s="6">
+        <v>1411</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1802,8 +1817,8 @@
       <c r="L22" s="4">
         <v>30</v>
       </c>
-      <c r="M22" s="5">
-        <v>1.151</v>
+      <c r="M22" s="6">
+        <v>1151</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1841,8 +1856,8 @@
       <c r="L23" s="4">
         <v>21</v>
       </c>
-      <c r="M23" s="5">
-        <v>1.1599999999999999</v>
+      <c r="M23" s="6">
+        <v>1160</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1882,7 +1897,7 @@
       <c r="L24" s="4">
         <v>29</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M24" s="7">
         <v>834</v>
       </c>
     </row>
@@ -1921,7 +1936,7 @@
       <c r="L25" s="4">
         <v>13</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M25" s="7">
         <v>996</v>
       </c>
     </row>
@@ -1962,7 +1977,7 @@
       <c r="L26" s="4">
         <v>15</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26" s="7">
         <v>528</v>
       </c>
     </row>
@@ -2001,7 +2016,7 @@
       <c r="L27" s="4">
         <v>20</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27" s="7">
         <v>779</v>
       </c>
     </row>
@@ -2042,7 +2057,7 @@
       <c r="L28" s="4">
         <v>14</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M28" s="7">
         <v>960</v>
       </c>
     </row>
@@ -2081,54 +2096,54 @@
       <c r="L29" s="4">
         <v>12</v>
       </c>
-      <c r="M29" s="5">
-        <v>1.258</v>
+      <c r="M29" s="6">
+        <v>1258</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5">
-        <v>1.0880000000000001</v>
-      </c>
-      <c r="D30" s="5">
-        <v>4.0190000000000001</v>
-      </c>
-      <c r="E30" s="5">
-        <v>11.095000000000001</v>
-      </c>
-      <c r="F30" s="5">
-        <v>4.452</v>
-      </c>
-      <c r="G30" s="5">
-        <v>8.3510000000000009</v>
-      </c>
-      <c r="H30" s="5">
-        <v>5.8879999999999999</v>
-      </c>
-      <c r="I30" s="5">
-        <v>2.4129999999999998</v>
-      </c>
-      <c r="J30" s="5">
+      <c r="B30" s="8"/>
+      <c r="C30" s="6">
+        <v>1088</v>
+      </c>
+      <c r="D30" s="6">
+        <v>4019</v>
+      </c>
+      <c r="E30" s="6">
+        <v>11095</v>
+      </c>
+      <c r="F30" s="6">
+        <v>4452</v>
+      </c>
+      <c r="G30" s="6">
+        <v>8351</v>
+      </c>
+      <c r="H30" s="6">
+        <v>5888</v>
+      </c>
+      <c r="I30" s="6">
+        <v>2413</v>
+      </c>
+      <c r="J30" s="7">
         <v>138</v>
       </c>
-      <c r="K30" s="5">
-        <v>14</v>
-      </c>
-      <c r="L30" s="5">
+      <c r="K30" s="7">
+        <v>14</v>
+      </c>
+      <c r="L30" s="7">
         <v>891</v>
       </c>
-      <c r="M30" s="5">
-        <v>38.348999999999997</v>
+      <c r="M30" s="6">
+        <v>38349</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="7"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="2" t="s">
         <v>2</v>
       </c>
@@ -2182,14 +2197,14 @@
       <c r="F32" s="4">
         <v>4</v>
       </c>
-      <c r="G32" s="4">
-        <v>5.3419999999999996</v>
-      </c>
-      <c r="H32" s="4">
-        <v>9.5890000000000004</v>
-      </c>
-      <c r="I32" s="4">
-        <v>1.9379999999999999</v>
+      <c r="G32" s="5">
+        <v>5342</v>
+      </c>
+      <c r="H32" s="5">
+        <v>9589</v>
+      </c>
+      <c r="I32" s="5">
+        <v>1938</v>
       </c>
       <c r="J32" s="4">
         <v>21</v>
@@ -2200,8 +2215,8 @@
       <c r="L32" s="4">
         <v>343</v>
       </c>
-      <c r="M32" s="5">
-        <v>17.387</v>
+      <c r="M32" s="6">
+        <v>17387</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2221,14 +2236,14 @@
       <c r="F33" s="4">
         <v>2</v>
       </c>
-      <c r="G33" s="4">
-        <v>4.4640000000000004</v>
-      </c>
-      <c r="H33" s="4">
-        <v>9.3520000000000003</v>
-      </c>
-      <c r="I33" s="4">
-        <v>2.5649999999999999</v>
+      <c r="G33" s="5">
+        <v>4464</v>
+      </c>
+      <c r="H33" s="5">
+        <v>9352</v>
+      </c>
+      <c r="I33" s="5">
+        <v>2565</v>
       </c>
       <c r="J33" s="4">
         <v>23</v>
@@ -2239,8 +2254,8 @@
       <c r="L33" s="4">
         <v>296</v>
       </c>
-      <c r="M33" s="5">
-        <v>16.914999999999999</v>
+      <c r="M33" s="6">
+        <v>16915</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2262,14 +2277,14 @@
       <c r="F34" s="4">
         <v>94</v>
       </c>
-      <c r="G34" s="4">
-        <v>3.8769999999999998</v>
-      </c>
-      <c r="H34" s="4">
-        <v>3.87</v>
-      </c>
-      <c r="I34" s="4">
-        <v>4.3440000000000003</v>
+      <c r="G34" s="5">
+        <v>3877</v>
+      </c>
+      <c r="H34" s="5">
+        <v>3870</v>
+      </c>
+      <c r="I34" s="5">
+        <v>4344</v>
       </c>
       <c r="J34" s="4">
         <v>426</v>
@@ -2280,8 +2295,8 @@
       <c r="L34" s="4">
         <v>324</v>
       </c>
-      <c r="M34" s="5">
-        <v>13.1</v>
+      <c r="M34" s="6">
+        <v>13100</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2301,14 +2316,14 @@
       <c r="F35" s="4">
         <v>161</v>
       </c>
-      <c r="G35" s="4">
-        <v>3.41</v>
-      </c>
-      <c r="H35" s="4">
-        <v>2.343</v>
-      </c>
-      <c r="I35" s="4">
-        <v>4.6319999999999997</v>
+      <c r="G35" s="5">
+        <v>3410</v>
+      </c>
+      <c r="H35" s="5">
+        <v>2343</v>
+      </c>
+      <c r="I35" s="5">
+        <v>4632</v>
       </c>
       <c r="J35" s="4">
         <v>425</v>
@@ -2319,8 +2334,8 @@
       <c r="L35" s="4">
         <v>468</v>
       </c>
-      <c r="M35" s="5">
-        <v>12.137</v>
+      <c r="M35" s="6">
+        <v>12137</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2339,17 +2354,17 @@
       <c r="E36" s="4">
         <v>94</v>
       </c>
-      <c r="F36" s="4">
-        <v>2.597</v>
-      </c>
-      <c r="G36" s="4">
-        <v>1.42</v>
-      </c>
-      <c r="H36" s="4">
-        <v>2.976</v>
-      </c>
-      <c r="I36" s="4">
-        <v>4.468</v>
+      <c r="F36" s="5">
+        <v>2597</v>
+      </c>
+      <c r="G36" s="5">
+        <v>1420</v>
+      </c>
+      <c r="H36" s="5">
+        <v>2976</v>
+      </c>
+      <c r="I36" s="5">
+        <v>4468</v>
       </c>
       <c r="J36" s="4">
         <v>605</v>
@@ -2360,8 +2375,8 @@
       <c r="L36" s="4">
         <v>445</v>
       </c>
-      <c r="M36" s="5">
-        <v>12.792999999999999</v>
+      <c r="M36" s="6">
+        <v>12793</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2378,17 +2393,17 @@
       <c r="E37" s="4">
         <v>402</v>
       </c>
-      <c r="F37" s="4">
-        <v>2.806</v>
-      </c>
-      <c r="G37" s="4">
-        <v>1.04</v>
-      </c>
-      <c r="H37" s="4">
-        <v>2.1509999999999998</v>
-      </c>
-      <c r="I37" s="4">
-        <v>3.26</v>
+      <c r="F37" s="5">
+        <v>2806</v>
+      </c>
+      <c r="G37" s="5">
+        <v>1040</v>
+      </c>
+      <c r="H37" s="5">
+        <v>2151</v>
+      </c>
+      <c r="I37" s="5">
+        <v>3260</v>
       </c>
       <c r="J37" s="4">
         <v>446</v>
@@ -2399,8 +2414,8 @@
       <c r="L37" s="4">
         <v>510</v>
       </c>
-      <c r="M37" s="5">
-        <v>11.117000000000001</v>
+      <c r="M37" s="6">
+        <v>11117</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2416,20 +2431,20 @@
       <c r="D38" s="4">
         <v>124</v>
       </c>
-      <c r="E38" s="4">
-        <v>1.3420000000000001</v>
-      </c>
-      <c r="F38" s="4">
-        <v>2.8540000000000001</v>
-      </c>
-      <c r="G38" s="4">
-        <v>1.107</v>
-      </c>
-      <c r="H38" s="4">
-        <v>2.7789999999999999</v>
-      </c>
-      <c r="I38" s="4">
-        <v>3.0230000000000001</v>
+      <c r="E38" s="5">
+        <v>1342</v>
+      </c>
+      <c r="F38" s="5">
+        <v>2854</v>
+      </c>
+      <c r="G38" s="5">
+        <v>1107</v>
+      </c>
+      <c r="H38" s="5">
+        <v>2779</v>
+      </c>
+      <c r="I38" s="5">
+        <v>3023</v>
       </c>
       <c r="J38" s="4">
         <v>548</v>
@@ -2440,8 +2455,8 @@
       <c r="L38" s="4">
         <v>647</v>
       </c>
-      <c r="M38" s="5">
-        <v>12.513</v>
+      <c r="M38" s="6">
+        <v>12513</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2455,20 +2470,20 @@
       <c r="D39" s="4">
         <v>268</v>
       </c>
-      <c r="E39" s="4">
-        <v>2.6080000000000001</v>
-      </c>
-      <c r="F39" s="4">
-        <v>1.9379999999999999</v>
-      </c>
-      <c r="G39" s="4">
-        <v>1.036</v>
-      </c>
-      <c r="H39" s="4">
-        <v>2.2789999999999999</v>
-      </c>
-      <c r="I39" s="4">
-        <v>2.2949999999999999</v>
+      <c r="E39" s="5">
+        <v>2608</v>
+      </c>
+      <c r="F39" s="5">
+        <v>1938</v>
+      </c>
+      <c r="G39" s="5">
+        <v>1036</v>
+      </c>
+      <c r="H39" s="5">
+        <v>2279</v>
+      </c>
+      <c r="I39" s="5">
+        <v>2295</v>
       </c>
       <c r="J39" s="4">
         <v>309</v>
@@ -2479,8 +2494,8 @@
       <c r="L39" s="4">
         <v>495</v>
       </c>
-      <c r="M39" s="5">
-        <v>11.342000000000001</v>
+      <c r="M39" s="6">
+        <v>11342</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2496,20 +2511,20 @@
       <c r="D40" s="4">
         <v>69</v>
       </c>
-      <c r="E40" s="4">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="F40" s="4">
-        <v>1.754</v>
-      </c>
-      <c r="G40" s="4">
-        <v>1.8240000000000001</v>
-      </c>
-      <c r="H40" s="4">
-        <v>2.5289999999999999</v>
-      </c>
-      <c r="I40" s="4">
-        <v>2.081</v>
+      <c r="E40" s="5">
+        <v>2530</v>
+      </c>
+      <c r="F40" s="5">
+        <v>1754</v>
+      </c>
+      <c r="G40" s="5">
+        <v>1824</v>
+      </c>
+      <c r="H40" s="5">
+        <v>2529</v>
+      </c>
+      <c r="I40" s="5">
+        <v>2081</v>
       </c>
       <c r="J40" s="4">
         <v>483</v>
@@ -2520,8 +2535,8 @@
       <c r="L40" s="4">
         <v>549</v>
       </c>
-      <c r="M40" s="5">
-        <v>11.938000000000001</v>
+      <c r="M40" s="6">
+        <v>11938</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2535,20 +2550,20 @@
       <c r="D41" s="4">
         <v>208</v>
       </c>
-      <c r="E41" s="4">
-        <v>3.8359999999999999</v>
-      </c>
-      <c r="F41" s="4">
-        <v>1.3160000000000001</v>
-      </c>
-      <c r="G41" s="4">
-        <v>1.3620000000000001</v>
-      </c>
-      <c r="H41" s="4">
-        <v>1.867</v>
-      </c>
-      <c r="I41" s="4">
-        <v>1.4850000000000001</v>
+      <c r="E41" s="5">
+        <v>3836</v>
+      </c>
+      <c r="F41" s="5">
+        <v>1316</v>
+      </c>
+      <c r="G41" s="5">
+        <v>1362</v>
+      </c>
+      <c r="H41" s="5">
+        <v>1867</v>
+      </c>
+      <c r="I41" s="5">
+        <v>1485</v>
       </c>
       <c r="J41" s="4">
         <v>259</v>
@@ -2559,8 +2574,8 @@
       <c r="L41" s="4">
         <v>362</v>
       </c>
-      <c r="M41" s="5">
-        <v>10.819000000000001</v>
+      <c r="M41" s="6">
+        <v>10819</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2576,20 +2591,20 @@
       <c r="D42" s="4">
         <v>56</v>
       </c>
-      <c r="E42" s="4">
-        <v>2.68</v>
-      </c>
-      <c r="F42" s="4">
-        <v>1.79</v>
-      </c>
-      <c r="G42" s="4">
-        <v>1.399</v>
-      </c>
-      <c r="H42" s="4">
-        <v>1.77</v>
-      </c>
-      <c r="I42" s="4">
-        <v>1.7290000000000001</v>
+      <c r="E42" s="5">
+        <v>2680</v>
+      </c>
+      <c r="F42" s="5">
+        <v>1790</v>
+      </c>
+      <c r="G42" s="5">
+        <v>1399</v>
+      </c>
+      <c r="H42" s="5">
+        <v>1770</v>
+      </c>
+      <c r="I42" s="5">
+        <v>1729</v>
       </c>
       <c r="J42" s="4">
         <v>265</v>
@@ -2600,8 +2615,8 @@
       <c r="L42" s="4">
         <v>400</v>
       </c>
-      <c r="M42" s="5">
-        <v>10.177</v>
+      <c r="M42" s="6">
+        <v>10177</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2615,17 +2630,17 @@
       <c r="D43" s="4">
         <v>205</v>
       </c>
-      <c r="E43" s="4">
-        <v>3.6930000000000001</v>
-      </c>
-      <c r="F43" s="4">
-        <v>1.327</v>
-      </c>
-      <c r="G43" s="4">
-        <v>1.139</v>
-      </c>
-      <c r="H43" s="4">
-        <v>1.341</v>
+      <c r="E43" s="5">
+        <v>3693</v>
+      </c>
+      <c r="F43" s="5">
+        <v>1327</v>
+      </c>
+      <c r="G43" s="5">
+        <v>1139</v>
+      </c>
+      <c r="H43" s="5">
+        <v>1341</v>
       </c>
       <c r="I43" s="4">
         <v>920</v>
@@ -2639,8 +2654,8 @@
       <c r="L43" s="4">
         <v>291</v>
       </c>
-      <c r="M43" s="5">
-        <v>9.1449999999999996</v>
+      <c r="M43" s="6">
+        <v>9145</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2656,20 +2671,20 @@
       <c r="D44" s="4">
         <v>69</v>
       </c>
-      <c r="E44" s="4">
-        <v>2.5310000000000001</v>
-      </c>
-      <c r="F44" s="4">
-        <v>1.665</v>
-      </c>
-      <c r="G44" s="4">
-        <v>1.224</v>
-      </c>
-      <c r="H44" s="4">
-        <v>1.224</v>
-      </c>
-      <c r="I44" s="4">
-        <v>1.3620000000000001</v>
+      <c r="E44" s="5">
+        <v>2531</v>
+      </c>
+      <c r="F44" s="5">
+        <v>1665</v>
+      </c>
+      <c r="G44" s="5">
+        <v>1224</v>
+      </c>
+      <c r="H44" s="5">
+        <v>1224</v>
+      </c>
+      <c r="I44" s="5">
+        <v>1362</v>
       </c>
       <c r="J44" s="4">
         <v>166</v>
@@ -2680,8 +2695,8 @@
       <c r="L44" s="4">
         <v>319</v>
       </c>
-      <c r="M44" s="5">
-        <v>8.64</v>
+      <c r="M44" s="6">
+        <v>8640</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2695,11 +2710,11 @@
       <c r="D45" s="4">
         <v>441</v>
       </c>
-      <c r="E45" s="4">
-        <v>3.4780000000000002</v>
-      </c>
-      <c r="F45" s="4">
-        <v>1.159</v>
+      <c r="E45" s="5">
+        <v>3478</v>
+      </c>
+      <c r="F45" s="5">
+        <v>1159</v>
       </c>
       <c r="G45" s="4">
         <v>922</v>
@@ -2719,8 +2734,8 @@
       <c r="L45" s="4">
         <v>258</v>
       </c>
-      <c r="M45" s="5">
-        <v>8.0500000000000007</v>
+      <c r="M45" s="6">
+        <v>8050</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2736,17 +2751,17 @@
       <c r="D46" s="4">
         <v>73</v>
       </c>
-      <c r="E46" s="4">
-        <v>2.8149999999999999</v>
-      </c>
-      <c r="F46" s="4">
-        <v>1.357</v>
-      </c>
-      <c r="G46" s="4">
-        <v>1.073</v>
-      </c>
-      <c r="H46" s="4">
-        <v>1.1319999999999999</v>
+      <c r="E46" s="5">
+        <v>2815</v>
+      </c>
+      <c r="F46" s="5">
+        <v>1357</v>
+      </c>
+      <c r="G46" s="5">
+        <v>1073</v>
+      </c>
+      <c r="H46" s="5">
+        <v>1132</v>
       </c>
       <c r="I46" s="4">
         <v>695</v>
@@ -2760,8 +2775,8 @@
       <c r="L46" s="4">
         <v>281</v>
       </c>
-      <c r="M46" s="5">
-        <v>7.5819999999999999</v>
+      <c r="M46" s="6">
+        <v>7582</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2775,8 +2790,8 @@
       <c r="D47" s="4">
         <v>677</v>
       </c>
-      <c r="E47" s="4">
-        <v>3.5379999999999998</v>
+      <c r="E47" s="5">
+        <v>3538</v>
       </c>
       <c r="F47" s="4">
         <v>628</v>
@@ -2799,8 +2814,8 @@
       <c r="L47" s="4">
         <v>224</v>
       </c>
-      <c r="M47" s="5">
-        <v>7.306</v>
+      <c r="M47" s="6">
+        <v>7306</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2816,8 +2831,8 @@
       <c r="D48" s="4">
         <v>98</v>
       </c>
-      <c r="E48" s="4">
-        <v>2.7949999999999999</v>
+      <c r="E48" s="5">
+        <v>2795</v>
       </c>
       <c r="F48" s="4">
         <v>681</v>
@@ -2840,8 +2855,8 @@
       <c r="L48" s="4">
         <v>205</v>
       </c>
-      <c r="M48" s="5">
-        <v>6.0129999999999999</v>
+      <c r="M48" s="6">
+        <v>6013</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2855,8 +2870,8 @@
       <c r="D49" s="4">
         <v>980</v>
       </c>
-      <c r="E49" s="4">
-        <v>2.9510000000000001</v>
+      <c r="E49" s="5">
+        <v>2951</v>
       </c>
       <c r="F49" s="4">
         <v>314</v>
@@ -2879,8 +2894,8 @@
       <c r="L49" s="4">
         <v>177</v>
       </c>
-      <c r="M49" s="5">
-        <v>6.0940000000000003</v>
+      <c r="M49" s="6">
+        <v>6094</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2896,8 +2911,8 @@
       <c r="D50" s="4">
         <v>155</v>
       </c>
-      <c r="E50" s="4">
-        <v>2.1419999999999999</v>
+      <c r="E50" s="5">
+        <v>2142</v>
       </c>
       <c r="F50" s="4">
         <v>281</v>
@@ -2920,8 +2935,8 @@
       <c r="L50" s="4">
         <v>163</v>
       </c>
-      <c r="M50" s="5">
-        <v>4.0270000000000001</v>
+      <c r="M50" s="6">
+        <v>4027</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2932,11 +2947,11 @@
       <c r="C51" s="4">
         <v>516</v>
       </c>
-      <c r="D51" s="4">
-        <v>1.167</v>
-      </c>
-      <c r="E51" s="4">
-        <v>1.7709999999999999</v>
+      <c r="D51" s="5">
+        <v>1167</v>
+      </c>
+      <c r="E51" s="5">
+        <v>1771</v>
       </c>
       <c r="F51" s="4">
         <v>76</v>
@@ -2959,8 +2974,8 @@
       <c r="L51" s="4">
         <v>105</v>
       </c>
-      <c r="M51" s="5">
-        <v>4.2889999999999997</v>
+      <c r="M51" s="6">
+        <v>4289</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -2976,8 +2991,8 @@
       <c r="D52" s="4">
         <v>195</v>
       </c>
-      <c r="E52" s="4">
-        <v>1.466</v>
+      <c r="E52" s="5">
+        <v>1466</v>
       </c>
       <c r="F52" s="4">
         <v>79</v>
@@ -3000,8 +3015,8 @@
       <c r="L52" s="4">
         <v>109</v>
       </c>
-      <c r="M52" s="5">
-        <v>2.5299999999999998</v>
+      <c r="M52" s="6">
+        <v>2530</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -3012,8 +3027,8 @@
       <c r="C53" s="4">
         <v>538</v>
       </c>
-      <c r="D53" s="4">
-        <v>1.016</v>
+      <c r="D53" s="5">
+        <v>1016</v>
       </c>
       <c r="E53" s="4">
         <v>954</v>
@@ -3039,8 +3054,8 @@
       <c r="L53" s="4">
         <v>84</v>
       </c>
-      <c r="M53" s="5">
-        <v>2.92</v>
+      <c r="M53" s="6">
+        <v>2920</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -3056,8 +3071,8 @@
       <c r="D54" s="4">
         <v>575</v>
       </c>
-      <c r="E54" s="4">
-        <v>1.4490000000000001</v>
+      <c r="E54" s="5">
+        <v>1449</v>
       </c>
       <c r="F54" s="4">
         <v>20</v>
@@ -3080,8 +3095,8 @@
       <c r="L54" s="4">
         <v>90</v>
       </c>
-      <c r="M54" s="5">
-        <v>2.819</v>
+      <c r="M54" s="6">
+        <v>2819</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -3092,8 +3107,8 @@
       <c r="C55" s="4">
         <v>990</v>
       </c>
-      <c r="D55" s="4">
-        <v>1.641</v>
+      <c r="D55" s="5">
+        <v>1641</v>
       </c>
       <c r="E55" s="4">
         <v>872</v>
@@ -3119,54 +3134,54 @@
       <c r="L55" s="4">
         <v>97</v>
       </c>
-      <c r="M55" s="5">
-        <v>3.8679999999999999</v>
+      <c r="M55" s="6">
+        <v>3868</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="5">
-        <v>3.78</v>
-      </c>
-      <c r="D56" s="5">
-        <v>8.968</v>
-      </c>
-      <c r="E56" s="5">
-        <v>44.731999999999999</v>
-      </c>
-      <c r="F56" s="5">
-        <v>22.927</v>
-      </c>
-      <c r="G56" s="5">
-        <v>33.448999999999998</v>
-      </c>
-      <c r="H56" s="5">
-        <v>49.860999999999997</v>
-      </c>
-      <c r="I56" s="5">
-        <v>37.616</v>
-      </c>
-      <c r="J56" s="5">
-        <v>4.3630000000000004</v>
-      </c>
-      <c r="K56" s="5">
+      <c r="B56" s="8"/>
+      <c r="C56" s="6">
+        <v>3780</v>
+      </c>
+      <c r="D56" s="6">
+        <v>8968</v>
+      </c>
+      <c r="E56" s="6">
+        <v>44732</v>
+      </c>
+      <c r="F56" s="6">
+        <v>22927</v>
+      </c>
+      <c r="G56" s="6">
+        <v>33449</v>
+      </c>
+      <c r="H56" s="6">
+        <v>49861</v>
+      </c>
+      <c r="I56" s="6">
+        <v>37616</v>
+      </c>
+      <c r="J56" s="6">
+        <v>4363</v>
+      </c>
+      <c r="K56" s="7">
         <v>583</v>
       </c>
-      <c r="L56" s="5">
-        <v>7.242</v>
-      </c>
-      <c r="M56" s="5">
-        <v>213.52099999999999</v>
+      <c r="L56" s="6">
+        <v>7242</v>
+      </c>
+      <c r="M56" s="6">
+        <v>213521</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="7"/>
+      <c r="B57" s="9"/>
       <c r="C57" s="2" t="s">
         <v>2</v>
       </c>
@@ -3220,11 +3235,11 @@
       <c r="F58" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G58" s="4">
-        <v>1.079</v>
-      </c>
-      <c r="H58" s="4">
-        <v>2.9129999999999998</v>
+      <c r="G58" s="5">
+        <v>1079</v>
+      </c>
+      <c r="H58" s="5">
+        <v>2913</v>
       </c>
       <c r="I58" s="4">
         <v>554</v>
@@ -3238,8 +3253,8 @@
       <c r="L58" s="4">
         <v>66</v>
       </c>
-      <c r="M58" s="5">
-        <v>4.6539999999999999</v>
+      <c r="M58" s="6">
+        <v>4654</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3262,8 +3277,8 @@
       <c r="G59" s="4">
         <v>780</v>
       </c>
-      <c r="H59" s="4">
-        <v>3.0110000000000001</v>
+      <c r="H59" s="5">
+        <v>3011</v>
       </c>
       <c r="I59" s="4">
         <v>870</v>
@@ -3277,8 +3292,8 @@
       <c r="L59" s="4">
         <v>24</v>
       </c>
-      <c r="M59" s="5">
-        <v>4.7210000000000001</v>
+      <c r="M59" s="6">
+        <v>4721</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3306,8 +3321,8 @@
       <c r="H60" s="4">
         <v>826</v>
       </c>
-      <c r="I60" s="4">
-        <v>1.1339999999999999</v>
+      <c r="I60" s="5">
+        <v>1134</v>
       </c>
       <c r="J60" s="4">
         <v>64</v>
@@ -3318,8 +3333,8 @@
       <c r="L60" s="4">
         <v>30</v>
       </c>
-      <c r="M60" s="5">
-        <v>3.0819999999999999</v>
+      <c r="M60" s="6">
+        <v>3082</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3345,8 +3360,8 @@
       <c r="H61" s="4">
         <v>797</v>
       </c>
-      <c r="I61" s="4">
-        <v>1.357</v>
+      <c r="I61" s="5">
+        <v>1357</v>
       </c>
       <c r="J61" s="4">
         <v>103</v>
@@ -3357,8 +3372,8 @@
       <c r="L61" s="4">
         <v>34</v>
       </c>
-      <c r="M61" s="5">
-        <v>3.34</v>
+      <c r="M61" s="6">
+        <v>3340</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -3398,8 +3413,8 @@
       <c r="L62" s="4">
         <v>27</v>
       </c>
-      <c r="M62" s="5">
-        <v>3.0209999999999999</v>
+      <c r="M62" s="6">
+        <v>3021</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3425,8 +3440,8 @@
       <c r="H63" s="4">
         <v>879</v>
       </c>
-      <c r="I63" s="4">
-        <v>1.0629999999999999</v>
+      <c r="I63" s="5">
+        <v>1063</v>
       </c>
       <c r="J63" s="4">
         <v>143</v>
@@ -3437,8 +3452,8 @@
       <c r="L63" s="4">
         <v>36</v>
       </c>
-      <c r="M63" s="5">
-        <v>3.3109999999999999</v>
+      <c r="M63" s="6">
+        <v>3311</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3478,8 +3493,8 @@
       <c r="L64" s="4">
         <v>114</v>
       </c>
-      <c r="M64" s="5">
-        <v>3.61</v>
+      <c r="M64" s="6">
+        <v>3610</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3517,8 +3532,8 @@
       <c r="L65" s="4">
         <v>41</v>
       </c>
-      <c r="M65" s="5">
-        <v>3.66</v>
+      <c r="M65" s="6">
+        <v>3660</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -3558,8 +3573,8 @@
       <c r="L66" s="4">
         <v>158</v>
       </c>
-      <c r="M66" s="5">
-        <v>4.1379999999999999</v>
+      <c r="M66" s="6">
+        <v>4138</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3573,8 +3588,8 @@
       <c r="D67" s="4">
         <v>29</v>
       </c>
-      <c r="E67" s="4">
-        <v>1.4590000000000001</v>
+      <c r="E67" s="5">
+        <v>1459</v>
       </c>
       <c r="F67" s="4">
         <v>350</v>
@@ -3597,8 +3612,8 @@
       <c r="L67" s="4">
         <v>53</v>
       </c>
-      <c r="M67" s="5">
-        <v>3.9119999999999999</v>
+      <c r="M67" s="6">
+        <v>3912</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -3614,8 +3629,8 @@
       <c r="D68" s="4">
         <v>14</v>
       </c>
-      <c r="E68" s="4">
-        <v>1.169</v>
+      <c r="E68" s="5">
+        <v>1169</v>
       </c>
       <c r="F68" s="4">
         <v>597</v>
@@ -3638,8 +3653,8 @@
       <c r="L68" s="4">
         <v>85</v>
       </c>
-      <c r="M68" s="5">
-        <v>3.6070000000000002</v>
+      <c r="M68" s="6">
+        <v>3607</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3653,8 +3668,8 @@
       <c r="D69" s="4">
         <v>53</v>
       </c>
-      <c r="E69" s="4">
-        <v>1.766</v>
+      <c r="E69" s="5">
+        <v>1766</v>
       </c>
       <c r="F69" s="4">
         <v>369</v>
@@ -3677,8 +3692,8 @@
       <c r="L69" s="4">
         <v>55</v>
       </c>
-      <c r="M69" s="5">
-        <v>3.6749999999999998</v>
+      <c r="M69" s="6">
+        <v>3675</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -3694,8 +3709,8 @@
       <c r="D70" s="4">
         <v>13</v>
       </c>
-      <c r="E70" s="4">
-        <v>1.266</v>
+      <c r="E70" s="5">
+        <v>1266</v>
       </c>
       <c r="F70" s="4">
         <v>607</v>
@@ -3718,8 +3733,8 @@
       <c r="L70" s="4">
         <v>87</v>
       </c>
-      <c r="M70" s="5">
-        <v>3.2810000000000001</v>
+      <c r="M70" s="6">
+        <v>3281</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3733,8 +3748,8 @@
       <c r="D71" s="4">
         <v>90</v>
       </c>
-      <c r="E71" s="4">
-        <v>1.831</v>
+      <c r="E71" s="5">
+        <v>1831</v>
       </c>
       <c r="F71" s="4">
         <v>299</v>
@@ -3757,8 +3772,8 @@
       <c r="L71" s="4">
         <v>47</v>
       </c>
-      <c r="M71" s="5">
-        <v>3.2759999999999998</v>
+      <c r="M71" s="6">
+        <v>3276</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -3774,8 +3789,8 @@
       <c r="D72" s="4">
         <v>15</v>
       </c>
-      <c r="E72" s="4">
-        <v>1.1990000000000001</v>
+      <c r="E72" s="5">
+        <v>1199</v>
       </c>
       <c r="F72" s="4">
         <v>531</v>
@@ -3798,8 +3813,8 @@
       <c r="L72" s="4">
         <v>106</v>
       </c>
-      <c r="M72" s="5">
-        <v>3.0590000000000002</v>
+      <c r="M72" s="6">
+        <v>3059</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -3813,8 +3828,8 @@
       <c r="D73" s="4">
         <v>246</v>
       </c>
-      <c r="E73" s="4">
-        <v>1.73</v>
+      <c r="E73" s="5">
+        <v>1730</v>
       </c>
       <c r="F73" s="4">
         <v>210</v>
@@ -3837,8 +3852,8 @@
       <c r="L73" s="4">
         <v>58</v>
       </c>
-      <c r="M73" s="5">
-        <v>3.0310000000000001</v>
+      <c r="M73" s="6">
+        <v>3031</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -3854,8 +3869,8 @@
       <c r="D74" s="4">
         <v>37</v>
       </c>
-      <c r="E74" s="4">
-        <v>1.3109999999999999</v>
+      <c r="E74" s="5">
+        <v>1311</v>
       </c>
       <c r="F74" s="4">
         <v>285</v>
@@ -3878,8 +3893,8 @@
       <c r="L74" s="4">
         <v>73</v>
       </c>
-      <c r="M74" s="5">
-        <v>2.4630000000000001</v>
+      <c r="M74" s="6">
+        <v>2463</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -3893,8 +3908,8 @@
       <c r="D75" s="4">
         <v>451</v>
       </c>
-      <c r="E75" s="4">
-        <v>1.2370000000000001</v>
+      <c r="E75" s="5">
+        <v>1237</v>
       </c>
       <c r="F75" s="4">
         <v>84</v>
@@ -3917,8 +3932,8 @@
       <c r="L75" s="4">
         <v>52</v>
       </c>
-      <c r="M75" s="5">
-        <v>2.4830000000000001</v>
+      <c r="M75" s="6">
+        <v>2483</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -3934,8 +3949,8 @@
       <c r="D76" s="4">
         <v>49</v>
       </c>
-      <c r="E76" s="4">
-        <v>1.2190000000000001</v>
+      <c r="E76" s="5">
+        <v>1219</v>
       </c>
       <c r="F76" s="4">
         <v>105</v>
@@ -3958,8 +3973,8 @@
       <c r="L76" s="4">
         <v>58</v>
       </c>
-      <c r="M76" s="5">
-        <v>2.008</v>
+      <c r="M76" s="6">
+        <v>2008</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -3997,8 +4012,8 @@
       <c r="L77" s="4">
         <v>57</v>
       </c>
-      <c r="M77" s="5">
-        <v>2.125</v>
+      <c r="M77" s="6">
+        <v>2125</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -4038,8 +4053,8 @@
       <c r="L78" s="4">
         <v>46</v>
       </c>
-      <c r="M78" s="5">
-        <v>1.302</v>
+      <c r="M78" s="6">
+        <v>1302</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -4077,8 +4092,8 @@
       <c r="L79" s="4">
         <v>45</v>
       </c>
-      <c r="M79" s="5">
-        <v>1.3560000000000001</v>
+      <c r="M79" s="6">
+        <v>1356</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -4118,8 +4133,8 @@
       <c r="L80" s="4">
         <v>53</v>
       </c>
-      <c r="M80" s="5">
-        <v>1.3360000000000001</v>
+      <c r="M80" s="6">
+        <v>1336</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -4157,54 +4172,54 @@
       <c r="L81" s="4">
         <v>36</v>
       </c>
-      <c r="M81" s="5">
-        <v>1.5580000000000001</v>
+      <c r="M81" s="6">
+        <v>1558</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="5">
-        <v>1.4259999999999999</v>
-      </c>
-      <c r="D82" s="5">
-        <v>3.91</v>
-      </c>
-      <c r="E82" s="5">
-        <v>19.106000000000002</v>
-      </c>
-      <c r="F82" s="5">
-        <v>6.95</v>
-      </c>
-      <c r="G82" s="5">
-        <v>9.5340000000000007</v>
-      </c>
-      <c r="H82" s="5">
-        <v>16.34</v>
-      </c>
-      <c r="I82" s="5">
-        <v>11.794</v>
-      </c>
-      <c r="J82" s="5">
-        <v>1.33</v>
-      </c>
-      <c r="K82" s="5">
+      <c r="B82" s="8"/>
+      <c r="C82" s="6">
+        <v>1426</v>
+      </c>
+      <c r="D82" s="6">
+        <v>3910</v>
+      </c>
+      <c r="E82" s="6">
+        <v>19106</v>
+      </c>
+      <c r="F82" s="6">
+        <v>6950</v>
+      </c>
+      <c r="G82" s="6">
+        <v>9534</v>
+      </c>
+      <c r="H82" s="6">
+        <v>16340</v>
+      </c>
+      <c r="I82" s="6">
+        <v>11794</v>
+      </c>
+      <c r="J82" s="6">
+        <v>1330</v>
+      </c>
+      <c r="K82" s="7">
         <v>178</v>
       </c>
-      <c r="L82" s="5">
-        <v>1.4410000000000001</v>
-      </c>
-      <c r="M82" s="5">
-        <v>72.009</v>
+      <c r="L82" s="6">
+        <v>1441</v>
+      </c>
+      <c r="M82" s="6">
+        <v>72009</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="7" t="s">
+      <c r="A83" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B83" s="7"/>
+      <c r="B83" s="9"/>
       <c r="C83" s="2" t="s">
         <v>2</v>
       </c>
@@ -4261,8 +4276,8 @@
       <c r="G84" s="4">
         <v>283</v>
       </c>
-      <c r="H84" s="4">
-        <v>1.08</v>
+      <c r="H84" s="5">
+        <v>1080</v>
       </c>
       <c r="I84" s="4">
         <v>243</v>
@@ -4276,8 +4291,8 @@
       <c r="L84" s="4">
         <v>44</v>
       </c>
-      <c r="M84" s="5">
-        <v>1.6619999999999999</v>
+      <c r="M84" s="6">
+        <v>1662</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4315,8 +4330,8 @@
       <c r="L85" s="4">
         <v>20</v>
       </c>
-      <c r="M85" s="5">
-        <v>1.5840000000000001</v>
+      <c r="M85" s="6">
+        <v>1584</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4356,8 +4371,8 @@
       <c r="L86" s="4">
         <v>28</v>
       </c>
-      <c r="M86" s="5">
-        <v>1.0740000000000001</v>
+      <c r="M86" s="6">
+        <v>1074</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -4395,8 +4410,8 @@
       <c r="L87" s="4">
         <v>37</v>
       </c>
-      <c r="M87" s="5">
-        <v>1.0529999999999999</v>
+      <c r="M87" s="6">
+        <v>1053</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -4436,8 +4451,8 @@
       <c r="L88" s="4">
         <v>36</v>
       </c>
-      <c r="M88" s="5">
-        <v>1.0329999999999999</v>
+      <c r="M88" s="6">
+        <v>1033</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -4475,8 +4490,8 @@
       <c r="L89" s="4">
         <v>50</v>
       </c>
-      <c r="M89" s="5">
-        <v>1.0760000000000001</v>
+      <c r="M89" s="6">
+        <v>1076</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -4516,8 +4531,8 @@
       <c r="L90" s="4">
         <v>45</v>
       </c>
-      <c r="M90" s="5">
-        <v>1.208</v>
+      <c r="M90" s="6">
+        <v>1208</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -4555,8 +4570,8 @@
       <c r="L91" s="4">
         <v>45</v>
       </c>
-      <c r="M91" s="5">
-        <v>1.137</v>
+      <c r="M91" s="6">
+        <v>1137</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -4596,8 +4611,8 @@
       <c r="L92" s="4">
         <v>30</v>
       </c>
-      <c r="M92" s="5">
-        <v>1.252</v>
+      <c r="M92" s="6">
+        <v>1252</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -4635,8 +4650,8 @@
       <c r="L93" s="4">
         <v>24</v>
       </c>
-      <c r="M93" s="5">
-        <v>1.1619999999999999</v>
+      <c r="M93" s="6">
+        <v>1162</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -4676,8 +4691,8 @@
       <c r="L94" s="4">
         <v>18</v>
       </c>
-      <c r="M94" s="5">
-        <v>1.006</v>
+      <c r="M94" s="6">
+        <v>1006</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -4715,8 +4730,8 @@
       <c r="L95" s="4">
         <v>25</v>
       </c>
-      <c r="M95" s="5">
-        <v>1.032</v>
+      <c r="M95" s="6">
+        <v>1032</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -4756,8 +4771,8 @@
       <c r="L96" s="4">
         <v>22</v>
       </c>
-      <c r="M96" s="5">
-        <v>1</v>
+      <c r="M96" s="6">
+        <v>1000</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -4795,8 +4810,8 @@
       <c r="L97" s="4">
         <v>26</v>
       </c>
-      <c r="M97" s="5">
-        <v>1.0029999999999999</v>
+      <c r="M97" s="6">
+        <v>1003</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -4836,8 +4851,8 @@
       <c r="L98" s="4">
         <v>28</v>
       </c>
-      <c r="M98" s="5">
-        <v>1.026</v>
+      <c r="M98" s="6">
+        <v>1026</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -4875,7 +4890,7 @@
       <c r="L99" s="4">
         <v>22</v>
       </c>
-      <c r="M99" s="5">
+      <c r="M99" s="7">
         <v>966</v>
       </c>
     </row>
@@ -4916,7 +4931,7 @@
       <c r="L100" s="4">
         <v>15</v>
       </c>
-      <c r="M100" s="5">
+      <c r="M100" s="7">
         <v>762</v>
       </c>
     </row>
@@ -4955,7 +4970,7 @@
       <c r="L101" s="4">
         <v>18</v>
       </c>
-      <c r="M101" s="5">
+      <c r="M101" s="7">
         <v>872</v>
       </c>
     </row>
@@ -4996,7 +5011,7 @@
       <c r="L102" s="4">
         <v>16</v>
       </c>
-      <c r="M102" s="5">
+      <c r="M102" s="7">
         <v>685</v>
       </c>
     </row>
@@ -5035,7 +5050,7 @@
       <c r="L103" s="4">
         <v>12</v>
       </c>
-      <c r="M103" s="5">
+      <c r="M103" s="7">
         <v>667</v>
       </c>
     </row>
@@ -5076,7 +5091,7 @@
       <c r="L104" s="4">
         <v>10</v>
       </c>
-      <c r="M104" s="5">
+      <c r="M104" s="7">
         <v>520</v>
       </c>
     </row>
@@ -5115,7 +5130,7 @@
       <c r="L105" s="4">
         <v>13</v>
       </c>
-      <c r="M105" s="5">
+      <c r="M105" s="7">
         <v>540</v>
       </c>
     </row>
@@ -5156,7 +5171,7 @@
       <c r="L106" s="4">
         <v>16</v>
       </c>
-      <c r="M106" s="5">
+      <c r="M106" s="7">
         <v>576</v>
       </c>
     </row>
@@ -5195,7 +5210,7 @@
       <c r="L107" s="4">
         <v>8</v>
       </c>
-      <c r="M107" s="5">
+      <c r="M107" s="7">
         <v>603</v>
       </c>
     </row>
@@ -5203,46 +5218,46 @@
       <c r="A108" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="6"/>
-      <c r="C108" s="5">
+      <c r="B108" s="8"/>
+      <c r="C108" s="7">
         <v>232</v>
       </c>
-      <c r="D108" s="5">
+      <c r="D108" s="7">
         <v>939</v>
       </c>
-      <c r="E108" s="5">
-        <v>4.5170000000000003</v>
-      </c>
-      <c r="F108" s="5">
-        <v>1.8520000000000001</v>
-      </c>
-      <c r="G108" s="5">
-        <v>3.125</v>
-      </c>
-      <c r="H108" s="5">
-        <v>6.9690000000000003</v>
-      </c>
-      <c r="I108" s="5">
-        <v>4.7030000000000003</v>
-      </c>
-      <c r="J108" s="5">
+      <c r="E108" s="6">
+        <v>4517</v>
+      </c>
+      <c r="F108" s="6">
+        <v>1852</v>
+      </c>
+      <c r="G108" s="6">
+        <v>3125</v>
+      </c>
+      <c r="H108" s="6">
+        <v>6969</v>
+      </c>
+      <c r="I108" s="6">
+        <v>4703</v>
+      </c>
+      <c r="J108" s="7">
         <v>486</v>
       </c>
-      <c r="K108" s="5">
+      <c r="K108" s="7">
         <v>68</v>
       </c>
-      <c r="L108" s="5">
+      <c r="L108" s="7">
         <v>608</v>
       </c>
-      <c r="M108" s="5">
-        <v>23.498999999999999</v>
+      <c r="M108" s="6">
+        <v>23499</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="7" t="s">
+      <c r="A109" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B109" s="7"/>
+      <c r="B109" s="9"/>
       <c r="C109" s="2" t="s">
         <v>2</v>
       </c>
@@ -5296,14 +5311,14 @@
       <c r="F110" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G110" s="4">
-        <v>1.7749999999999999</v>
-      </c>
-      <c r="H110" s="4">
-        <v>4.3570000000000002</v>
-      </c>
-      <c r="I110" s="4">
-        <v>1.1539999999999999</v>
+      <c r="G110" s="5">
+        <v>1775</v>
+      </c>
+      <c r="H110" s="5">
+        <v>4357</v>
+      </c>
+      <c r="I110" s="5">
+        <v>1154</v>
       </c>
       <c r="J110" s="4">
         <v>17</v>
@@ -5314,8 +5329,8 @@
       <c r="L110" s="4">
         <v>70</v>
       </c>
-      <c r="M110" s="5">
-        <v>7.4160000000000004</v>
+      <c r="M110" s="6">
+        <v>7416</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -5335,14 +5350,14 @@
       <c r="F111" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G111" s="4">
-        <v>1.133</v>
-      </c>
-      <c r="H111" s="4">
-        <v>4.5540000000000003</v>
-      </c>
-      <c r="I111" s="4">
-        <v>1.4279999999999999</v>
+      <c r="G111" s="5">
+        <v>1133</v>
+      </c>
+      <c r="H111" s="5">
+        <v>4554</v>
+      </c>
+      <c r="I111" s="5">
+        <v>1428</v>
       </c>
       <c r="J111" s="4">
         <v>8</v>
@@ -5353,8 +5368,8 @@
       <c r="L111" s="4">
         <v>18</v>
       </c>
-      <c r="M111" s="5">
-        <v>7.1989999999999998</v>
+      <c r="M111" s="6">
+        <v>7199</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -5376,14 +5391,14 @@
       <c r="F112" s="4">
         <v>18</v>
       </c>
-      <c r="G112" s="4">
-        <v>1.413</v>
-      </c>
-      <c r="H112" s="4">
-        <v>1.298</v>
-      </c>
-      <c r="I112" s="4">
-        <v>2.66</v>
+      <c r="G112" s="5">
+        <v>1413</v>
+      </c>
+      <c r="H112" s="5">
+        <v>1298</v>
+      </c>
+      <c r="I112" s="5">
+        <v>2660</v>
       </c>
       <c r="J112" s="4">
         <v>221</v>
@@ -5394,8 +5409,8 @@
       <c r="L112" s="4">
         <v>54</v>
       </c>
-      <c r="M112" s="5">
-        <v>5.7080000000000002</v>
+      <c r="M112" s="6">
+        <v>5708</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -5415,14 +5430,14 @@
       <c r="F113" s="4">
         <v>29</v>
       </c>
-      <c r="G113" s="4">
-        <v>1.1419999999999999</v>
-      </c>
-      <c r="H113" s="4">
-        <v>1.0780000000000001</v>
-      </c>
-      <c r="I113" s="4">
-        <v>2.6120000000000001</v>
+      <c r="G113" s="5">
+        <v>1142</v>
+      </c>
+      <c r="H113" s="5">
+        <v>1078</v>
+      </c>
+      <c r="I113" s="5">
+        <v>2612</v>
       </c>
       <c r="J113" s="4">
         <v>197</v>
@@ -5433,8 +5448,8 @@
       <c r="L113" s="4">
         <v>34</v>
       </c>
-      <c r="M113" s="5">
-        <v>5.1539999999999999</v>
+      <c r="M113" s="6">
+        <v>5154</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -5453,17 +5468,17 @@
       <c r="E114" s="4">
         <v>16</v>
       </c>
-      <c r="F114" s="4">
-        <v>1.036</v>
+      <c r="F114" s="5">
+        <v>1036</v>
       </c>
       <c r="G114" s="4">
         <v>541</v>
       </c>
-      <c r="H114" s="4">
-        <v>1.2250000000000001</v>
-      </c>
-      <c r="I114" s="4">
-        <v>2.173</v>
+      <c r="H114" s="5">
+        <v>1225</v>
+      </c>
+      <c r="I114" s="5">
+        <v>2173</v>
       </c>
       <c r="J114" s="4">
         <v>322</v>
@@ -5474,8 +5489,8 @@
       <c r="L114" s="4">
         <v>77</v>
       </c>
-      <c r="M114" s="5">
-        <v>5.4539999999999997</v>
+      <c r="M114" s="6">
+        <v>5454</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -5492,17 +5507,17 @@
       <c r="E115" s="4">
         <v>45</v>
       </c>
-      <c r="F115" s="4">
-        <v>1.0269999999999999</v>
+      <c r="F115" s="5">
+        <v>1027</v>
       </c>
       <c r="G115" s="4">
         <v>447</v>
       </c>
-      <c r="H115" s="4">
-        <v>1.0609999999999999</v>
-      </c>
-      <c r="I115" s="4">
-        <v>2.1469999999999998</v>
+      <c r="H115" s="5">
+        <v>1061</v>
+      </c>
+      <c r="I115" s="5">
+        <v>2147</v>
       </c>
       <c r="J115" s="4">
         <v>271</v>
@@ -5513,8 +5528,8 @@
       <c r="L115" s="4">
         <v>64</v>
       </c>
-      <c r="M115" s="5">
-        <v>5.1340000000000003</v>
+      <c r="M115" s="6">
+        <v>5134</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -5533,17 +5548,17 @@
       <c r="E116" s="4">
         <v>659</v>
       </c>
-      <c r="F116" s="4">
-        <v>1.1240000000000001</v>
+      <c r="F116" s="5">
+        <v>1124</v>
       </c>
       <c r="G116" s="4">
         <v>539</v>
       </c>
-      <c r="H116" s="4">
-        <v>1.226</v>
-      </c>
-      <c r="I116" s="4">
-        <v>1.6619999999999999</v>
+      <c r="H116" s="5">
+        <v>1226</v>
+      </c>
+      <c r="I116" s="5">
+        <v>1662</v>
       </c>
       <c r="J116" s="4">
         <v>333</v>
@@ -5554,8 +5569,8 @@
       <c r="L116" s="4">
         <v>177</v>
       </c>
-      <c r="M116" s="5">
-        <v>5.78</v>
+      <c r="M116" s="6">
+        <v>5780</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -5569,8 +5584,8 @@
       <c r="D117" s="4">
         <v>46</v>
       </c>
-      <c r="E117" s="4">
-        <v>1.085</v>
+      <c r="E117" s="5">
+        <v>1085</v>
       </c>
       <c r="F117" s="4">
         <v>900</v>
@@ -5578,11 +5593,11 @@
       <c r="G117" s="4">
         <v>486</v>
       </c>
-      <c r="H117" s="4">
-        <v>1.343</v>
-      </c>
-      <c r="I117" s="4">
-        <v>1.681</v>
+      <c r="H117" s="5">
+        <v>1343</v>
+      </c>
+      <c r="I117" s="5">
+        <v>1681</v>
       </c>
       <c r="J117" s="4">
         <v>242</v>
@@ -5593,8 +5608,8 @@
       <c r="L117" s="4">
         <v>74</v>
       </c>
-      <c r="M117" s="5">
-        <v>5.883</v>
+      <c r="M117" s="6">
+        <v>5883</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -5610,8 +5625,8 @@
       <c r="D118" s="4">
         <v>28</v>
       </c>
-      <c r="E118" s="4">
-        <v>1.56</v>
+      <c r="E118" s="5">
+        <v>1560</v>
       </c>
       <c r="F118" s="4">
         <v>596</v>
@@ -5619,11 +5634,11 @@
       <c r="G118" s="4">
         <v>874</v>
       </c>
-      <c r="H118" s="4">
-        <v>1.093</v>
-      </c>
-      <c r="I118" s="4">
-        <v>1.1950000000000001</v>
+      <c r="H118" s="5">
+        <v>1093</v>
+      </c>
+      <c r="I118" s="5">
+        <v>1195</v>
       </c>
       <c r="J118" s="4">
         <v>342</v>
@@ -5634,8 +5649,8 @@
       <c r="L118" s="4">
         <v>215</v>
       </c>
-      <c r="M118" s="5">
-        <v>5.9420000000000002</v>
+      <c r="M118" s="6">
+        <v>5942</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -5649,8 +5664,8 @@
       <c r="D119" s="4">
         <v>33</v>
       </c>
-      <c r="E119" s="4">
-        <v>2.0249999999999999</v>
+      <c r="E119" s="5">
+        <v>2025</v>
       </c>
       <c r="F119" s="4">
         <v>565</v>
@@ -5658,11 +5673,11 @@
       <c r="G119" s="4">
         <v>847</v>
       </c>
-      <c r="H119" s="4">
-        <v>1.1839999999999999</v>
-      </c>
-      <c r="I119" s="4">
-        <v>1.2310000000000001</v>
+      <c r="H119" s="5">
+        <v>1184</v>
+      </c>
+      <c r="I119" s="5">
+        <v>1231</v>
       </c>
       <c r="J119" s="4">
         <v>230</v>
@@ -5673,8 +5688,8 @@
       <c r="L119" s="4">
         <v>51</v>
       </c>
-      <c r="M119" s="5">
-        <v>6.1959999999999997</v>
+      <c r="M119" s="6">
+        <v>6196</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -5690,8 +5705,8 @@
       <c r="D120" s="4">
         <v>31</v>
       </c>
-      <c r="E120" s="4">
-        <v>1.9419999999999999</v>
+      <c r="E120" s="5">
+        <v>1942</v>
       </c>
       <c r="F120" s="4">
         <v>698</v>
@@ -5714,8 +5729,8 @@
       <c r="L120" s="4">
         <v>159</v>
       </c>
-      <c r="M120" s="5">
-        <v>5.3609999999999998</v>
+      <c r="M120" s="6">
+        <v>5361</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -5729,8 +5744,8 @@
       <c r="D121" s="4">
         <v>40</v>
       </c>
-      <c r="E121" s="4">
-        <v>2.4049999999999998</v>
+      <c r="E121" s="5">
+        <v>2405</v>
       </c>
       <c r="F121" s="4">
         <v>679</v>
@@ -5753,8 +5768,8 @@
       <c r="L121" s="4">
         <v>55</v>
       </c>
-      <c r="M121" s="5">
-        <v>5.59</v>
+      <c r="M121" s="6">
+        <v>5590</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -5770,8 +5785,8 @@
       <c r="D122" s="4">
         <v>23</v>
       </c>
-      <c r="E122" s="4">
-        <v>2.0009999999999999</v>
+      <c r="E122" s="5">
+        <v>2001</v>
       </c>
       <c r="F122" s="4">
         <v>789</v>
@@ -5794,8 +5809,8 @@
       <c r="L122" s="4">
         <v>111</v>
       </c>
-      <c r="M122" s="5">
-        <v>4.9029999999999996</v>
+      <c r="M122" s="6">
+        <v>4903</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -5809,8 +5824,8 @@
       <c r="D123" s="4">
         <v>124</v>
       </c>
-      <c r="E123" s="4">
-        <v>2.4590000000000001</v>
+      <c r="E123" s="5">
+        <v>2459</v>
       </c>
       <c r="F123" s="4">
         <v>619</v>
@@ -5833,8 +5848,8 @@
       <c r="L123" s="4">
         <v>59</v>
       </c>
-      <c r="M123" s="5">
-        <v>5.0090000000000003</v>
+      <c r="M123" s="6">
+        <v>5009</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -5850,8 +5865,8 @@
       <c r="D124" s="4">
         <v>38</v>
       </c>
-      <c r="E124" s="4">
-        <v>2.1869999999999998</v>
+      <c r="E124" s="5">
+        <v>2187</v>
       </c>
       <c r="F124" s="4">
         <v>700</v>
@@ -5874,8 +5889,8 @@
       <c r="L124" s="4">
         <v>113</v>
       </c>
-      <c r="M124" s="5">
-        <v>4.6100000000000003</v>
+      <c r="M124" s="6">
+        <v>4610</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -5889,8 +5904,8 @@
       <c r="D125" s="4">
         <v>296</v>
       </c>
-      <c r="E125" s="4">
-        <v>2.4590000000000001</v>
+      <c r="E125" s="5">
+        <v>2459</v>
       </c>
       <c r="F125" s="4">
         <v>438</v>
@@ -5913,8 +5928,8 @@
       <c r="L125" s="4">
         <v>59</v>
       </c>
-      <c r="M125" s="5">
-        <v>4.4720000000000004</v>
+      <c r="M125" s="6">
+        <v>4472</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -5930,8 +5945,8 @@
       <c r="D126" s="4">
         <v>53</v>
       </c>
-      <c r="E126" s="4">
-        <v>1.9830000000000001</v>
+      <c r="E126" s="5">
+        <v>1983</v>
       </c>
       <c r="F126" s="4">
         <v>374</v>
@@ -5954,8 +5969,8 @@
       <c r="L126" s="4">
         <v>93</v>
       </c>
-      <c r="M126" s="5">
-        <v>3.617</v>
+      <c r="M126" s="6">
+        <v>3617</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
@@ -5969,8 +5984,8 @@
       <c r="D127" s="4">
         <v>647</v>
       </c>
-      <c r="E127" s="4">
-        <v>1.7949999999999999</v>
+      <c r="E127" s="5">
+        <v>1795</v>
       </c>
       <c r="F127" s="4">
         <v>188</v>
@@ -5993,8 +6008,8 @@
       <c r="L127" s="4">
         <v>55</v>
       </c>
-      <c r="M127" s="5">
-        <v>3.556</v>
+      <c r="M127" s="6">
+        <v>3556</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
@@ -6010,8 +6025,8 @@
       <c r="D128" s="4">
         <v>68</v>
       </c>
-      <c r="E128" s="4">
-        <v>1.671</v>
+      <c r="E128" s="5">
+        <v>1671</v>
       </c>
       <c r="F128" s="4">
         <v>135</v>
@@ -6034,8 +6049,8 @@
       <c r="L128" s="4">
         <v>83</v>
       </c>
-      <c r="M128" s="5">
-        <v>2.6139999999999999</v>
+      <c r="M128" s="6">
+        <v>2614</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
@@ -6049,8 +6064,8 @@
       <c r="D129" s="4">
         <v>779</v>
       </c>
-      <c r="E129" s="4">
-        <v>1.0549999999999999</v>
+      <c r="E129" s="5">
+        <v>1055</v>
       </c>
       <c r="F129" s="4">
         <v>52</v>
@@ -6073,8 +6088,8 @@
       <c r="L129" s="4">
         <v>41</v>
       </c>
-      <c r="M129" s="5">
-        <v>2.6070000000000002</v>
+      <c r="M129" s="6">
+        <v>2607</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
@@ -6090,8 +6105,8 @@
       <c r="D130" s="4">
         <v>112</v>
       </c>
-      <c r="E130" s="4">
-        <v>1.05</v>
+      <c r="E130" s="5">
+        <v>1050</v>
       </c>
       <c r="F130" s="4">
         <v>30</v>
@@ -6114,8 +6129,8 @@
       <c r="L130" s="4">
         <v>34</v>
       </c>
-      <c r="M130" s="5">
-        <v>1.514</v>
+      <c r="M130" s="6">
+        <v>1514</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
@@ -6153,8 +6168,8 @@
       <c r="L131" s="4">
         <v>35</v>
       </c>
-      <c r="M131" s="5">
-        <v>1.6579999999999999</v>
+      <c r="M131" s="6">
+        <v>1658</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
@@ -6170,8 +6185,8 @@
       <c r="D132" s="4">
         <v>456</v>
       </c>
-      <c r="E132" s="4">
-        <v>1.006</v>
+      <c r="E132" s="5">
+        <v>1006</v>
       </c>
       <c r="F132" s="4">
         <v>13</v>
@@ -6194,8 +6209,8 @@
       <c r="L132" s="4">
         <v>61</v>
       </c>
-      <c r="M132" s="5">
-        <v>1.8480000000000001</v>
+      <c r="M132" s="6">
+        <v>1848</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
@@ -6206,8 +6221,8 @@
       <c r="C133" s="4">
         <v>659</v>
       </c>
-      <c r="D133" s="4">
-        <v>1.1279999999999999</v>
+      <c r="D133" s="5">
+        <v>1128</v>
       </c>
       <c r="E133" s="4">
         <v>283</v>
@@ -6233,54 +6248,54 @@
       <c r="L133" s="4">
         <v>36</v>
       </c>
-      <c r="M133" s="5">
-        <v>2.1890000000000001</v>
+      <c r="M133" s="6">
+        <v>2189</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B134" s="6"/>
-      <c r="C134" s="5">
-        <v>2.0379999999999998</v>
-      </c>
-      <c r="D134" s="5">
-        <v>4.9249999999999998</v>
-      </c>
-      <c r="E134" s="5">
-        <v>28.206</v>
-      </c>
-      <c r="F134" s="5">
-        <v>10.026</v>
-      </c>
-      <c r="G134" s="5">
-        <v>13.914</v>
-      </c>
-      <c r="H134" s="5">
-        <v>23.498000000000001</v>
-      </c>
-      <c r="I134" s="5">
-        <v>21.988</v>
-      </c>
-      <c r="J134" s="5">
-        <v>2.7330000000000001</v>
-      </c>
-      <c r="K134" s="5">
+      <c r="B134" s="8"/>
+      <c r="C134" s="6">
+        <v>2038</v>
+      </c>
+      <c r="D134" s="6">
+        <v>4925</v>
+      </c>
+      <c r="E134" s="6">
+        <v>28206</v>
+      </c>
+      <c r="F134" s="6">
+        <v>10026</v>
+      </c>
+      <c r="G134" s="6">
+        <v>13914</v>
+      </c>
+      <c r="H134" s="6">
+        <v>23498</v>
+      </c>
+      <c r="I134" s="6">
+        <v>21988</v>
+      </c>
+      <c r="J134" s="6">
+        <v>2733</v>
+      </c>
+      <c r="K134" s="7">
         <v>258</v>
       </c>
-      <c r="L134" s="5">
-        <v>1.8280000000000001</v>
-      </c>
-      <c r="M134" s="5">
-        <v>109.414</v>
+      <c r="L134" s="6">
+        <v>1828</v>
+      </c>
+      <c r="M134" s="6">
+        <v>109414</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A135" s="7" t="s">
+      <c r="A135" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B135" s="7"/>
+      <c r="B135" s="9"/>
       <c r="C135" s="2" t="s">
         <v>2</v>
       </c>
@@ -6334,11 +6349,11 @@
       <c r="F136" s="4">
         <v>3</v>
       </c>
-      <c r="G136" s="4">
-        <v>1.7050000000000001</v>
-      </c>
-      <c r="H136" s="4">
-        <v>4.3419999999999996</v>
+      <c r="G136" s="5">
+        <v>1705</v>
+      </c>
+      <c r="H136" s="5">
+        <v>4342</v>
       </c>
       <c r="I136" s="4">
         <v>871</v>
@@ -6352,8 +6367,8 @@
       <c r="L136" s="4">
         <v>43</v>
       </c>
-      <c r="M136" s="5">
-        <v>7.0679999999999996</v>
+      <c r="M136" s="6">
+        <v>7068</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -6373,14 +6388,14 @@
       <c r="F137" s="4">
         <v>2</v>
       </c>
-      <c r="G137" s="4">
-        <v>1.4390000000000001</v>
-      </c>
-      <c r="H137" s="4">
-        <v>4.2670000000000003</v>
-      </c>
-      <c r="I137" s="4">
-        <v>1.1659999999999999</v>
+      <c r="G137" s="5">
+        <v>1439</v>
+      </c>
+      <c r="H137" s="5">
+        <v>4267</v>
+      </c>
+      <c r="I137" s="5">
+        <v>1166</v>
       </c>
       <c r="J137" s="4">
         <v>13</v>
@@ -6391,8 +6406,8 @@
       <c r="L137" s="4">
         <v>24</v>
       </c>
-      <c r="M137" s="5">
-        <v>7.0389999999999997</v>
+      <c r="M137" s="6">
+        <v>7039</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -6417,11 +6432,11 @@
       <c r="G138" s="4">
         <v>937</v>
       </c>
-      <c r="H138" s="4">
-        <v>1.5660000000000001</v>
-      </c>
-      <c r="I138" s="4">
-        <v>1.786</v>
+      <c r="H138" s="5">
+        <v>1566</v>
+      </c>
+      <c r="I138" s="5">
+        <v>1786</v>
       </c>
       <c r="J138" s="4">
         <v>118</v>
@@ -6432,8 +6447,8 @@
       <c r="L138" s="4">
         <v>32</v>
       </c>
-      <c r="M138" s="5">
-        <v>4.5579999999999998</v>
+      <c r="M138" s="6">
+        <v>4558</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -6456,11 +6471,11 @@
       <c r="G139" s="4">
         <v>970</v>
       </c>
-      <c r="H139" s="4">
-        <v>1.22</v>
-      </c>
-      <c r="I139" s="4">
-        <v>2.0009999999999999</v>
+      <c r="H139" s="5">
+        <v>1220</v>
+      </c>
+      <c r="I139" s="5">
+        <v>2001</v>
       </c>
       <c r="J139" s="4">
         <v>153</v>
@@ -6471,8 +6486,8 @@
       <c r="L139" s="4">
         <v>27</v>
       </c>
-      <c r="M139" s="5">
-        <v>4.6669999999999998</v>
+      <c r="M139" s="6">
+        <v>4667</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -6497,11 +6512,11 @@
       <c r="G140" s="4">
         <v>473</v>
       </c>
-      <c r="H140" s="4">
-        <v>1.5129999999999999</v>
-      </c>
-      <c r="I140" s="4">
-        <v>1.607</v>
+      <c r="H140" s="5">
+        <v>1513</v>
+      </c>
+      <c r="I140" s="5">
+        <v>1607</v>
       </c>
       <c r="J140" s="4">
         <v>156</v>
@@ -6512,8 +6527,8 @@
       <c r="L140" s="4">
         <v>13</v>
       </c>
-      <c r="M140" s="5">
-        <v>4.3029999999999999</v>
+      <c r="M140" s="6">
+        <v>4303</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -6536,11 +6551,11 @@
       <c r="G141" s="4">
         <v>399</v>
       </c>
-      <c r="H141" s="4">
-        <v>1.282</v>
-      </c>
-      <c r="I141" s="4">
-        <v>1.5940000000000001</v>
+      <c r="H141" s="5">
+        <v>1282</v>
+      </c>
+      <c r="I141" s="5">
+        <v>1594</v>
       </c>
       <c r="J141" s="4">
         <v>145</v>
@@ -6551,8 +6566,8 @@
       <c r="L141" s="4">
         <v>33</v>
       </c>
-      <c r="M141" s="5">
-        <v>4.516</v>
+      <c r="M141" s="6">
+        <v>4516</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -6577,11 +6592,11 @@
       <c r="G142" s="4">
         <v>443</v>
       </c>
-      <c r="H142" s="4">
-        <v>1.847</v>
-      </c>
-      <c r="I142" s="4">
-        <v>1.36</v>
+      <c r="H142" s="5">
+        <v>1847</v>
+      </c>
+      <c r="I142" s="5">
+        <v>1360</v>
       </c>
       <c r="J142" s="4">
         <v>148</v>
@@ -6592,8 +6607,8 @@
       <c r="L142" s="4">
         <v>35</v>
       </c>
-      <c r="M142" s="5">
-        <v>4.67</v>
+      <c r="M142" s="6">
+        <v>4670</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -6616,11 +6631,11 @@
       <c r="G143" s="4">
         <v>468</v>
       </c>
-      <c r="H143" s="4">
-        <v>1.458</v>
-      </c>
-      <c r="I143" s="4">
-        <v>1.177</v>
+      <c r="H143" s="5">
+        <v>1458</v>
+      </c>
+      <c r="I143" s="5">
+        <v>1177</v>
       </c>
       <c r="J143" s="4">
         <v>91</v>
@@ -6631,8 +6646,8 @@
       <c r="L143" s="4">
         <v>49</v>
       </c>
-      <c r="M143" s="5">
-        <v>4.7699999999999996</v>
+      <c r="M143" s="6">
+        <v>4770</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -6657,11 +6672,11 @@
       <c r="G144" s="4">
         <v>759</v>
       </c>
-      <c r="H144" s="4">
-        <v>1.8819999999999999</v>
-      </c>
-      <c r="I144" s="4">
-        <v>1.153</v>
+      <c r="H144" s="5">
+        <v>1882</v>
+      </c>
+      <c r="I144" s="5">
+        <v>1153</v>
       </c>
       <c r="J144" s="4">
         <v>186</v>
@@ -6672,8 +6687,8 @@
       <c r="L144" s="4">
         <v>33</v>
       </c>
-      <c r="M144" s="5">
-        <v>4.9269999999999996</v>
+      <c r="M144" s="6">
+        <v>4927</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -6687,8 +6702,8 @@
       <c r="D145" s="4">
         <v>169</v>
       </c>
-      <c r="E145" s="4">
-        <v>1.202</v>
+      <c r="E145" s="5">
+        <v>1202</v>
       </c>
       <c r="F145" s="4">
         <v>411</v>
@@ -6696,8 +6711,8 @@
       <c r="G145" s="4">
         <v>764</v>
       </c>
-      <c r="H145" s="4">
-        <v>1.323</v>
+      <c r="H145" s="5">
+        <v>1323</v>
       </c>
       <c r="I145" s="4">
         <v>850</v>
@@ -6711,8 +6726,8 @@
       <c r="L145" s="4">
         <v>33</v>
       </c>
-      <c r="M145" s="5">
-        <v>4.9020000000000001</v>
+      <c r="M145" s="6">
+        <v>4902</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -6737,8 +6752,8 @@
       <c r="G146" s="4">
         <v>672</v>
       </c>
-      <c r="H146" s="4">
-        <v>1.488</v>
+      <c r="H146" s="5">
+        <v>1488</v>
       </c>
       <c r="I146" s="4">
         <v>857</v>
@@ -6752,8 +6767,8 @@
       <c r="L146" s="4">
         <v>29</v>
       </c>
-      <c r="M146" s="5">
-        <v>4.1319999999999997</v>
+      <c r="M146" s="6">
+        <v>4132</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
@@ -6767,8 +6782,8 @@
       <c r="D147" s="4">
         <v>159</v>
       </c>
-      <c r="E147" s="4">
-        <v>1.3180000000000001</v>
+      <c r="E147" s="5">
+        <v>1318</v>
       </c>
       <c r="F147" s="4">
         <v>398</v>
@@ -6791,8 +6806,8 @@
       <c r="L147" s="4">
         <v>29</v>
       </c>
-      <c r="M147" s="5">
-        <v>4.1050000000000004</v>
+      <c r="M147" s="6">
+        <v>4105</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
@@ -6817,8 +6832,8 @@
       <c r="G148" s="4">
         <v>752</v>
       </c>
-      <c r="H148" s="4">
-        <v>1.0089999999999999</v>
+      <c r="H148" s="5">
+        <v>1009</v>
       </c>
       <c r="I148" s="4">
         <v>677</v>
@@ -6832,8 +6847,8 @@
       <c r="L148" s="4">
         <v>19</v>
       </c>
-      <c r="M148" s="5">
-        <v>3.7389999999999999</v>
+      <c r="M148" s="6">
+        <v>3739</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -6847,8 +6862,8 @@
       <c r="D149" s="4">
         <v>201</v>
       </c>
-      <c r="E149" s="4">
-        <v>1.369</v>
+      <c r="E149" s="5">
+        <v>1369</v>
       </c>
       <c r="F149" s="4">
         <v>375</v>
@@ -6871,8 +6886,8 @@
       <c r="L149" s="4">
         <v>30</v>
       </c>
-      <c r="M149" s="5">
-        <v>3.49</v>
+      <c r="M149" s="6">
+        <v>3490</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -6912,8 +6927,8 @@
       <c r="L150" s="4">
         <v>12</v>
       </c>
-      <c r="M150" s="5">
-        <v>3.2069999999999999</v>
+      <c r="M150" s="6">
+        <v>3207</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
@@ -6927,8 +6942,8 @@
       <c r="D151" s="4">
         <v>280</v>
       </c>
-      <c r="E151" s="4">
-        <v>1.4470000000000001</v>
+      <c r="E151" s="5">
+        <v>1447</v>
       </c>
       <c r="F151" s="4">
         <v>262</v>
@@ -6951,8 +6966,8 @@
       <c r="L151" s="4">
         <v>36</v>
       </c>
-      <c r="M151" s="5">
-        <v>3.1360000000000001</v>
+      <c r="M151" s="6">
+        <v>3136</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -6992,8 +7007,8 @@
       <c r="L152" s="4">
         <v>12</v>
       </c>
-      <c r="M152" s="5">
-        <v>2.6320000000000001</v>
+      <c r="M152" s="6">
+        <v>2632</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
@@ -7007,8 +7022,8 @@
       <c r="D153" s="4">
         <v>363</v>
       </c>
-      <c r="E153" s="4">
-        <v>1.3169999999999999</v>
+      <c r="E153" s="5">
+        <v>1317</v>
       </c>
       <c r="F153" s="4">
         <v>124</v>
@@ -7031,8 +7046,8 @@
       <c r="L153" s="4">
         <v>25</v>
       </c>
-      <c r="M153" s="5">
-        <v>2.6960000000000002</v>
+      <c r="M153" s="6">
+        <v>2696</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -7072,8 +7087,8 @@
       <c r="L154" s="4">
         <v>16</v>
       </c>
-      <c r="M154" s="5">
-        <v>2.0329999999999999</v>
+      <c r="M154" s="6">
+        <v>2033</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
@@ -7111,8 +7126,8 @@
       <c r="L155" s="4">
         <v>23</v>
       </c>
-      <c r="M155" s="5">
-        <v>2.109</v>
+      <c r="M155" s="6">
+        <v>2109</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
@@ -7152,8 +7167,8 @@
       <c r="L156" s="4">
         <v>12</v>
       </c>
-      <c r="M156" s="5">
-        <v>1.4530000000000001</v>
+      <c r="M156" s="6">
+        <v>1453</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
@@ -7191,8 +7206,8 @@
       <c r="L157" s="4">
         <v>12</v>
       </c>
-      <c r="M157" s="5">
-        <v>1.4339999999999999</v>
+      <c r="M157" s="6">
+        <v>1434</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
@@ -7232,8 +7247,8 @@
       <c r="L158" s="4">
         <v>4</v>
       </c>
-      <c r="M158" s="5">
-        <v>1.274</v>
+      <c r="M158" s="6">
+        <v>1274</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -7271,54 +7286,54 @@
       <c r="L159" s="4">
         <v>18</v>
       </c>
-      <c r="M159" s="5">
-        <v>1.7729999999999999</v>
+      <c r="M159" s="6">
+        <v>1773</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B160" s="6"/>
-      <c r="C160" s="5">
-        <v>1.5429999999999999</v>
-      </c>
-      <c r="D160" s="5">
-        <v>3.8559999999999999</v>
-      </c>
-      <c r="E160" s="5">
-        <v>15.087999999999999</v>
-      </c>
-      <c r="F160" s="5">
-        <v>6.4950000000000001</v>
-      </c>
-      <c r="G160" s="5">
-        <v>13.603</v>
-      </c>
-      <c r="H160" s="5">
-        <v>28.303999999999998</v>
-      </c>
-      <c r="I160" s="5">
-        <v>17.599</v>
-      </c>
-      <c r="J160" s="5">
-        <v>1.46</v>
-      </c>
-      <c r="K160" s="5">
+      <c r="B160" s="8"/>
+      <c r="C160" s="6">
+        <v>1543</v>
+      </c>
+      <c r="D160" s="6">
+        <v>3856</v>
+      </c>
+      <c r="E160" s="6">
+        <v>15088</v>
+      </c>
+      <c r="F160" s="6">
+        <v>6495</v>
+      </c>
+      <c r="G160" s="6">
+        <v>13603</v>
+      </c>
+      <c r="H160" s="6">
+        <v>28304</v>
+      </c>
+      <c r="I160" s="6">
+        <v>17599</v>
+      </c>
+      <c r="J160" s="6">
+        <v>1460</v>
+      </c>
+      <c r="K160" s="7">
         <v>86</v>
       </c>
-      <c r="L160" s="5">
+      <c r="L160" s="7">
         <v>599</v>
       </c>
-      <c r="M160" s="5">
-        <v>88.632999999999996</v>
+      <c r="M160" s="6">
+        <v>88633</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A161" s="7" t="s">
+      <c r="A161" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B161" s="7"/>
+      <c r="B161" s="9"/>
       <c r="C161" s="2" t="s">
         <v>2</v>
       </c>
@@ -7375,8 +7390,8 @@
       <c r="G162" s="4">
         <v>725</v>
       </c>
-      <c r="H162" s="4">
-        <v>1.329</v>
+      <c r="H162" s="5">
+        <v>1329</v>
       </c>
       <c r="I162" s="4">
         <v>245</v>
@@ -7390,8 +7405,8 @@
       <c r="L162" s="4">
         <v>26</v>
       </c>
-      <c r="M162" s="5">
-        <v>2.4020000000000001</v>
+      <c r="M162" s="6">
+        <v>2402</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -7414,8 +7429,8 @@
       <c r="G163" s="4">
         <v>522</v>
       </c>
-      <c r="H163" s="4">
-        <v>1.286</v>
+      <c r="H163" s="5">
+        <v>1286</v>
       </c>
       <c r="I163" s="4">
         <v>368</v>
@@ -7429,8 +7444,8 @@
       <c r="L163" s="4">
         <v>14</v>
       </c>
-      <c r="M163" s="5">
-        <v>2.2650000000000001</v>
+      <c r="M163" s="6">
+        <v>2265</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -7470,8 +7485,8 @@
       <c r="L164" s="4">
         <v>11</v>
       </c>
-      <c r="M164" s="5">
-        <v>1.4990000000000001</v>
+      <c r="M164" s="6">
+        <v>1499</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
@@ -7509,8 +7524,8 @@
       <c r="L165" s="4">
         <v>11</v>
       </c>
-      <c r="M165" s="5">
-        <v>1.5720000000000001</v>
+      <c r="M165" s="6">
+        <v>1572</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
@@ -7550,8 +7565,8 @@
       <c r="L166" s="4">
         <v>4</v>
       </c>
-      <c r="M166" s="5">
-        <v>1.345</v>
+      <c r="M166" s="6">
+        <v>1345</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -7589,8 +7604,8 @@
       <c r="L167" s="4">
         <v>7</v>
       </c>
-      <c r="M167" s="5">
-        <v>1.2829999999999999</v>
+      <c r="M167" s="6">
+        <v>1283</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
@@ -7630,8 +7645,8 @@
       <c r="L168" s="4">
         <v>3</v>
       </c>
-      <c r="M168" s="5">
-        <v>1.4550000000000001</v>
+      <c r="M168" s="6">
+        <v>1455</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
@@ -7669,8 +7684,8 @@
       <c r="L169" s="4">
         <v>4</v>
       </c>
-      <c r="M169" s="5">
-        <v>1.3759999999999999</v>
+      <c r="M169" s="6">
+        <v>1376</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
@@ -7710,8 +7725,8 @@
       <c r="L170" s="4">
         <v>7</v>
       </c>
-      <c r="M170" s="5">
-        <v>1.474</v>
+      <c r="M170" s="6">
+        <v>1474</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
@@ -7749,8 +7764,8 @@
       <c r="L171" s="4">
         <v>6</v>
       </c>
-      <c r="M171" s="5">
-        <v>1.47</v>
+      <c r="M171" s="6">
+        <v>1470</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
@@ -7790,8 +7805,8 @@
       <c r="L172" s="4">
         <v>6</v>
       </c>
-      <c r="M172" s="5">
-        <v>1.1779999999999999</v>
+      <c r="M172" s="6">
+        <v>1178</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
@@ -7829,8 +7844,8 @@
       <c r="L173" s="4">
         <v>13</v>
       </c>
-      <c r="M173" s="5">
-        <v>1.268</v>
+      <c r="M173" s="6">
+        <v>1268</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
@@ -7870,8 +7885,8 @@
       <c r="L174" s="4">
         <v>7</v>
       </c>
-      <c r="M174" s="5">
-        <v>1.1659999999999999</v>
+      <c r="M174" s="6">
+        <v>1166</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
@@ -7909,8 +7924,8 @@
       <c r="L175" s="4">
         <v>11</v>
       </c>
-      <c r="M175" s="5">
-        <v>1.2629999999999999</v>
+      <c r="M175" s="6">
+        <v>1263</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
@@ -7950,8 +7965,8 @@
       <c r="L176" s="4">
         <v>20</v>
       </c>
-      <c r="M176" s="5">
-        <v>1.1120000000000001</v>
+      <c r="M176" s="6">
+        <v>1112</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
@@ -7989,8 +8004,8 @@
       <c r="L177" s="4">
         <v>9</v>
       </c>
-      <c r="M177" s="5">
-        <v>1.083</v>
+      <c r="M177" s="6">
+        <v>1083</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
@@ -8030,8 +8045,8 @@
       <c r="L178" s="4">
         <v>9</v>
       </c>
-      <c r="M178" s="5">
-        <v>1.0960000000000001</v>
+      <c r="M178" s="6">
+        <v>1096</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
@@ -8069,8 +8084,8 @@
       <c r="L179" s="4">
         <v>5</v>
       </c>
-      <c r="M179" s="5">
-        <v>1.075</v>
+      <c r="M179" s="6">
+        <v>1075</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
@@ -8110,7 +8125,7 @@
       <c r="L180" s="4">
         <v>3</v>
       </c>
-      <c r="M180" s="5">
+      <c r="M180" s="7">
         <v>821</v>
       </c>
     </row>
@@ -8149,7 +8164,7 @@
       <c r="L181" s="4">
         <v>5</v>
       </c>
-      <c r="M181" s="5">
+      <c r="M181" s="7">
         <v>821</v>
       </c>
     </row>
@@ -8190,7 +8205,7 @@
       <c r="L182" s="4">
         <v>5</v>
       </c>
-      <c r="M182" s="5">
+      <c r="M182" s="7">
         <v>596</v>
       </c>
     </row>
@@ -8229,7 +8244,7 @@
       <c r="L183" s="4">
         <v>6</v>
       </c>
-      <c r="M183" s="5">
+      <c r="M183" s="7">
         <v>643</v>
       </c>
     </row>
@@ -8270,7 +8285,7 @@
       <c r="L184" s="4">
         <v>13</v>
       </c>
-      <c r="M184" s="5">
+      <c r="M184" s="7">
         <v>565</v>
       </c>
     </row>
@@ -8309,7 +8324,7 @@
       <c r="L185" s="4">
         <v>10</v>
       </c>
-      <c r="M185" s="5">
+      <c r="M185" s="7">
         <v>814</v>
       </c>
     </row>
@@ -8317,46 +8332,46 @@
       <c r="A186" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B186" s="6"/>
-      <c r="C186" s="5">
+      <c r="B186" s="8"/>
+      <c r="C186" s="7">
         <v>555</v>
       </c>
-      <c r="D186" s="5">
-        <v>2.02</v>
-      </c>
-      <c r="E186" s="5">
-        <v>5.3639999999999999</v>
-      </c>
-      <c r="F186" s="5">
-        <v>2.0609999999999999</v>
-      </c>
-      <c r="G186" s="5">
-        <v>4.8520000000000003</v>
-      </c>
-      <c r="H186" s="5">
-        <v>9.3849999999999998</v>
-      </c>
-      <c r="I186" s="5">
-        <v>4.8490000000000002</v>
-      </c>
-      <c r="J186" s="5">
+      <c r="D186" s="6">
+        <v>2020</v>
+      </c>
+      <c r="E186" s="6">
+        <v>5364</v>
+      </c>
+      <c r="F186" s="6">
+        <v>2061</v>
+      </c>
+      <c r="G186" s="6">
+        <v>4852</v>
+      </c>
+      <c r="H186" s="6">
+        <v>9385</v>
+      </c>
+      <c r="I186" s="6">
+        <v>4849</v>
+      </c>
+      <c r="J186" s="7">
         <v>319</v>
       </c>
-      <c r="K186" s="5">
+      <c r="K186" s="7">
         <v>22</v>
       </c>
-      <c r="L186" s="5">
+      <c r="L186" s="7">
         <v>215</v>
       </c>
-      <c r="M186" s="5">
-        <v>29.641999999999999</v>
+      <c r="M186" s="6">
+        <v>29642</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A187" s="7" t="s">
+      <c r="A187" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B187" s="7"/>
+      <c r="B187" s="9"/>
       <c r="C187" s="2" t="s">
         <v>2</v>
       </c>
@@ -8413,8 +8428,8 @@
       <c r="G188" s="4">
         <v>760</v>
       </c>
-      <c r="H188" s="4">
-        <v>2.2080000000000002</v>
+      <c r="H188" s="5">
+        <v>2208</v>
       </c>
       <c r="I188" s="4">
         <v>369</v>
@@ -8428,8 +8443,8 @@
       <c r="L188" s="4">
         <v>39</v>
       </c>
-      <c r="M188" s="5">
-        <v>3.41</v>
+      <c r="M188" s="6">
+        <v>3410</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
@@ -8452,8 +8467,8 @@
       <c r="G189" s="4">
         <v>832</v>
       </c>
-      <c r="H189" s="4">
-        <v>1.958</v>
+      <c r="H189" s="5">
+        <v>1958</v>
       </c>
       <c r="I189" s="4">
         <v>429</v>
@@ -8467,8 +8482,8 @@
       <c r="L189" s="4">
         <v>19</v>
       </c>
-      <c r="M189" s="5">
-        <v>3.2690000000000001</v>
+      <c r="M189" s="6">
+        <v>3269</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
@@ -8508,8 +8523,8 @@
       <c r="L190" s="4">
         <v>21</v>
       </c>
-      <c r="M190" s="5">
-        <v>2.0019999999999998</v>
+      <c r="M190" s="6">
+        <v>2002</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
@@ -8547,8 +8562,8 @@
       <c r="L191" s="4">
         <v>18</v>
       </c>
-      <c r="M191" s="5">
-        <v>1.823</v>
+      <c r="M191" s="6">
+        <v>1823</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
@@ -8588,8 +8603,8 @@
       <c r="L192" s="4">
         <v>17</v>
       </c>
-      <c r="M192" s="5">
-        <v>1.746</v>
+      <c r="M192" s="6">
+        <v>1746</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
@@ -8627,8 +8642,8 @@
       <c r="L193" s="4">
         <v>22</v>
       </c>
-      <c r="M193" s="5">
-        <v>1.488</v>
+      <c r="M193" s="6">
+        <v>1488</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
@@ -8668,8 +8683,8 @@
       <c r="L194" s="4">
         <v>19</v>
       </c>
-      <c r="M194" s="5">
-        <v>1.7889999999999999</v>
+      <c r="M194" s="6">
+        <v>1789</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
@@ -8707,8 +8722,8 @@
       <c r="L195" s="4">
         <v>17</v>
       </c>
-      <c r="M195" s="5">
-        <v>1.617</v>
+      <c r="M195" s="6">
+        <v>1617</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
@@ -8748,8 +8763,8 @@
       <c r="L196" s="4">
         <v>13</v>
       </c>
-      <c r="M196" s="5">
-        <v>1.8759999999999999</v>
+      <c r="M196" s="6">
+        <v>1876</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
@@ -8787,8 +8802,8 @@
       <c r="L197" s="4">
         <v>16</v>
       </c>
-      <c r="M197" s="5">
-        <v>1.7549999999999999</v>
+      <c r="M197" s="6">
+        <v>1755</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
@@ -8828,8 +8843,8 @@
       <c r="L198" s="4">
         <v>17</v>
       </c>
-      <c r="M198" s="5">
-        <v>1.68</v>
+      <c r="M198" s="6">
+        <v>1680</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
@@ -8867,8 +8882,8 @@
       <c r="L199" s="4">
         <v>15</v>
       </c>
-      <c r="M199" s="5">
-        <v>1.57</v>
+      <c r="M199" s="6">
+        <v>1570</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
@@ -8908,8 +8923,8 @@
       <c r="L200" s="4">
         <v>12</v>
       </c>
-      <c r="M200" s="5">
-        <v>1.679</v>
+      <c r="M200" s="6">
+        <v>1679</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
@@ -8947,8 +8962,8 @@
       <c r="L201" s="4">
         <v>8</v>
       </c>
-      <c r="M201" s="5">
-        <v>1.583</v>
+      <c r="M201" s="6">
+        <v>1583</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
@@ -8988,8 +9003,8 @@
       <c r="L202" s="4">
         <v>8</v>
       </c>
-      <c r="M202" s="5">
-        <v>1.649</v>
+      <c r="M202" s="6">
+        <v>1649</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
@@ -9027,8 +9042,8 @@
       <c r="L203" s="4">
         <v>15</v>
       </c>
-      <c r="M203" s="5">
-        <v>1.5289999999999999</v>
+      <c r="M203" s="6">
+        <v>1529</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
@@ -9068,8 +9083,8 @@
       <c r="L204" s="4">
         <v>9</v>
       </c>
-      <c r="M204" s="5">
-        <v>1.1850000000000001</v>
+      <c r="M204" s="6">
+        <v>1185</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
@@ -9107,8 +9122,8 @@
       <c r="L205" s="4">
         <v>6</v>
       </c>
-      <c r="M205" s="5">
-        <v>1.177</v>
+      <c r="M205" s="6">
+        <v>1177</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
@@ -9148,7 +9163,7 @@
       <c r="L206" s="4">
         <v>4</v>
       </c>
-      <c r="M206" s="5">
+      <c r="M206" s="7">
         <v>899</v>
       </c>
     </row>
@@ -9187,7 +9202,7 @@
       <c r="L207" s="4">
         <v>6</v>
       </c>
-      <c r="M207" s="5">
+      <c r="M207" s="7">
         <v>953</v>
       </c>
     </row>
@@ -9228,7 +9243,7 @@
       <c r="L208" s="4">
         <v>5</v>
       </c>
-      <c r="M208" s="5">
+      <c r="M208" s="7">
         <v>564</v>
       </c>
     </row>
@@ -9267,7 +9282,7 @@
       <c r="L209" s="4">
         <v>2</v>
       </c>
-      <c r="M209" s="5">
+      <c r="M209" s="7">
         <v>736</v>
       </c>
     </row>
@@ -9308,7 +9323,7 @@
       <c r="L210" s="4">
         <v>2</v>
       </c>
-      <c r="M210" s="5">
+      <c r="M210" s="7">
         <v>697</v>
       </c>
     </row>
@@ -9347,7 +9362,7 @@
       <c r="L211" s="4">
         <v>2</v>
       </c>
-      <c r="M211" s="5">
+      <c r="M211" s="7">
         <v>934</v>
       </c>
     </row>
@@ -9355,46 +9370,46 @@
       <c r="A212" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B212" s="6"/>
-      <c r="C212" s="5">
+      <c r="B212" s="8"/>
+      <c r="C212" s="7">
         <v>934</v>
       </c>
-      <c r="D212" s="5">
-        <v>2.8889999999999998</v>
-      </c>
-      <c r="E212" s="5">
-        <v>7.9969999999999999</v>
-      </c>
-      <c r="F212" s="5">
-        <v>3.6469999999999998</v>
-      </c>
-      <c r="G212" s="5">
-        <v>6.532</v>
-      </c>
-      <c r="H212" s="5">
-        <v>10.67</v>
-      </c>
-      <c r="I212" s="5">
-        <v>4.2270000000000003</v>
-      </c>
-      <c r="J212" s="5">
+      <c r="D212" s="6">
+        <v>2889</v>
+      </c>
+      <c r="E212" s="6">
+        <v>7997</v>
+      </c>
+      <c r="F212" s="6">
+        <v>3647</v>
+      </c>
+      <c r="G212" s="6">
+        <v>6532</v>
+      </c>
+      <c r="H212" s="6">
+        <v>10670</v>
+      </c>
+      <c r="I212" s="6">
+        <v>4227</v>
+      </c>
+      <c r="J212" s="7">
         <v>370</v>
       </c>
-      <c r="K212" s="5">
+      <c r="K212" s="7">
         <v>32</v>
       </c>
-      <c r="L212" s="5">
+      <c r="L212" s="7">
         <v>312</v>
       </c>
-      <c r="M212" s="5">
-        <v>37.61</v>
+      <c r="M212" s="6">
+        <v>37610</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A213" s="7" t="s">
+      <c r="A213" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B213" s="7"/>
+      <c r="B213" s="9"/>
       <c r="C213" s="2" t="s">
         <v>2</v>
       </c>
@@ -9448,14 +9463,14 @@
       <c r="F214" s="4">
         <v>3</v>
       </c>
-      <c r="G214" s="4">
-        <v>2.3690000000000002</v>
-      </c>
-      <c r="H214" s="4">
-        <v>7.31</v>
-      </c>
-      <c r="I214" s="4">
-        <v>1.6519999999999999</v>
+      <c r="G214" s="5">
+        <v>2369</v>
+      </c>
+      <c r="H214" s="5">
+        <v>7310</v>
+      </c>
+      <c r="I214" s="5">
+        <v>1652</v>
       </c>
       <c r="J214" s="4">
         <v>10</v>
@@ -9466,8 +9481,8 @@
       <c r="L214" s="4">
         <v>139</v>
       </c>
-      <c r="M214" s="5">
-        <v>11.654999999999999</v>
+      <c r="M214" s="6">
+        <v>11655</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
@@ -9487,14 +9502,14 @@
       <c r="F215" s="4">
         <v>3</v>
       </c>
-      <c r="G215" s="4">
-        <v>2</v>
-      </c>
-      <c r="H215" s="4">
-        <v>6.7229999999999999</v>
-      </c>
-      <c r="I215" s="4">
-        <v>2.109</v>
+      <c r="G215" s="5">
+        <v>2000</v>
+      </c>
+      <c r="H215" s="5">
+        <v>6723</v>
+      </c>
+      <c r="I215" s="5">
+        <v>2109</v>
       </c>
       <c r="J215" s="4">
         <v>11</v>
@@ -9505,8 +9520,8 @@
       <c r="L215" s="4">
         <v>73</v>
       </c>
-      <c r="M215" s="5">
-        <v>11.106999999999999</v>
+      <c r="M215" s="6">
+        <v>11107</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
@@ -9528,14 +9543,14 @@
       <c r="F216" s="4">
         <v>61</v>
       </c>
-      <c r="G216" s="4">
-        <v>1.637</v>
-      </c>
-      <c r="H216" s="4">
-        <v>2.8039999999999998</v>
-      </c>
-      <c r="I216" s="4">
-        <v>3.5110000000000001</v>
+      <c r="G216" s="5">
+        <v>1637</v>
+      </c>
+      <c r="H216" s="5">
+        <v>2804</v>
+      </c>
+      <c r="I216" s="5">
+        <v>3511</v>
       </c>
       <c r="J216" s="4">
         <v>216</v>
@@ -9546,8 +9561,8 @@
       <c r="L216" s="4">
         <v>85</v>
       </c>
-      <c r="M216" s="5">
-        <v>8.4329999999999998</v>
+      <c r="M216" s="6">
+        <v>8433</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
@@ -9567,14 +9582,14 @@
       <c r="F217" s="4">
         <v>59</v>
       </c>
-      <c r="G217" s="4">
-        <v>1.5760000000000001</v>
-      </c>
-      <c r="H217" s="4">
-        <v>2.0739999999999998</v>
-      </c>
-      <c r="I217" s="4">
-        <v>3.5049999999999999</v>
+      <c r="G217" s="5">
+        <v>1576</v>
+      </c>
+      <c r="H217" s="5">
+        <v>2074</v>
+      </c>
+      <c r="I217" s="5">
+        <v>3505</v>
       </c>
       <c r="J217" s="4">
         <v>299</v>
@@ -9585,8 +9600,8 @@
       <c r="L217" s="4">
         <v>118</v>
       </c>
-      <c r="M217" s="5">
-        <v>7.9660000000000002</v>
+      <c r="M217" s="6">
+        <v>7966</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
@@ -9611,11 +9626,11 @@
       <c r="G218" s="4">
         <v>733</v>
       </c>
-      <c r="H218" s="4">
-        <v>2.7090000000000001</v>
-      </c>
-      <c r="I218" s="4">
-        <v>3.423</v>
+      <c r="H218" s="5">
+        <v>2709</v>
+      </c>
+      <c r="I218" s="5">
+        <v>3423</v>
       </c>
       <c r="J218" s="4">
         <v>289</v>
@@ -9626,8 +9641,8 @@
       <c r="L218" s="4">
         <v>106</v>
       </c>
-      <c r="M218" s="5">
-        <v>8.2929999999999993</v>
+      <c r="M218" s="6">
+        <v>8293</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
@@ -9644,17 +9659,17 @@
       <c r="E219" s="4">
         <v>164</v>
       </c>
-      <c r="F219" s="4">
-        <v>1.1919999999999999</v>
+      <c r="F219" s="5">
+        <v>1192</v>
       </c>
       <c r="G219" s="4">
         <v>656</v>
       </c>
-      <c r="H219" s="4">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="I219" s="4">
-        <v>2.9350000000000001</v>
+      <c r="H219" s="5">
+        <v>2320</v>
+      </c>
+      <c r="I219" s="5">
+        <v>2935</v>
       </c>
       <c r="J219" s="4">
         <v>301</v>
@@ -9665,8 +9680,8 @@
       <c r="L219" s="4">
         <v>181</v>
       </c>
-      <c r="M219" s="5">
-        <v>8.0399999999999991</v>
+      <c r="M219" s="6">
+        <v>8040</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
@@ -9685,17 +9700,17 @@
       <c r="E220" s="4">
         <v>374</v>
       </c>
-      <c r="F220" s="4">
-        <v>1.022</v>
+      <c r="F220" s="5">
+        <v>1022</v>
       </c>
       <c r="G220" s="4">
         <v>651</v>
       </c>
-      <c r="H220" s="4">
-        <v>3.0979999999999999</v>
-      </c>
-      <c r="I220" s="4">
-        <v>3.052</v>
+      <c r="H220" s="5">
+        <v>3098</v>
+      </c>
+      <c r="I220" s="5">
+        <v>3052</v>
       </c>
       <c r="J220" s="4">
         <v>319</v>
@@ -9706,8 +9721,8 @@
       <c r="L220" s="4">
         <v>168</v>
       </c>
-      <c r="M220" s="5">
-        <v>8.7949999999999999</v>
+      <c r="M220" s="6">
+        <v>8795</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
@@ -9721,20 +9736,20 @@
       <c r="D221" s="4">
         <v>160</v>
       </c>
-      <c r="E221" s="4">
-        <v>1.218</v>
-      </c>
-      <c r="F221" s="4">
-        <v>1.1200000000000001</v>
+      <c r="E221" s="5">
+        <v>1218</v>
+      </c>
+      <c r="F221" s="5">
+        <v>1120</v>
       </c>
       <c r="G221" s="4">
         <v>782</v>
       </c>
-      <c r="H221" s="4">
-        <v>2.7029999999999998</v>
-      </c>
-      <c r="I221" s="4">
-        <v>2.3149999999999999</v>
+      <c r="H221" s="5">
+        <v>2703</v>
+      </c>
+      <c r="I221" s="5">
+        <v>2315</v>
       </c>
       <c r="J221" s="4">
         <v>279</v>
@@ -9745,8 +9760,8 @@
       <c r="L221" s="4">
         <v>143</v>
       </c>
-      <c r="M221" s="5">
-        <v>8.7870000000000008</v>
+      <c r="M221" s="6">
+        <v>8787</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
@@ -9768,14 +9783,14 @@
       <c r="F222" s="4">
         <v>884</v>
       </c>
-      <c r="G222" s="4">
-        <v>1.327</v>
-      </c>
-      <c r="H222" s="4">
-        <v>3.2519999999999998</v>
-      </c>
-      <c r="I222" s="4">
-        <v>2.5390000000000001</v>
+      <c r="G222" s="5">
+        <v>1327</v>
+      </c>
+      <c r="H222" s="5">
+        <v>3252</v>
+      </c>
+      <c r="I222" s="5">
+        <v>2539</v>
       </c>
       <c r="J222" s="4">
         <v>340</v>
@@ -9786,8 +9801,8 @@
       <c r="L222" s="4">
         <v>152</v>
       </c>
-      <c r="M222" s="5">
-        <v>9.3260000000000005</v>
+      <c r="M222" s="6">
+        <v>9326</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
@@ -9801,20 +9816,20 @@
       <c r="D223" s="4">
         <v>157</v>
       </c>
-      <c r="E223" s="4">
-        <v>1.847</v>
+      <c r="E223" s="5">
+        <v>1847</v>
       </c>
       <c r="F223" s="4">
         <v>782</v>
       </c>
-      <c r="G223" s="4">
-        <v>1.2729999999999999</v>
-      </c>
-      <c r="H223" s="4">
-        <v>2.742</v>
-      </c>
-      <c r="I223" s="4">
-        <v>1.784</v>
+      <c r="G223" s="5">
+        <v>1273</v>
+      </c>
+      <c r="H223" s="5">
+        <v>2742</v>
+      </c>
+      <c r="I223" s="5">
+        <v>1784</v>
       </c>
       <c r="J223" s="4">
         <v>229</v>
@@ -9825,8 +9840,8 @@
       <c r="L223" s="4">
         <v>165</v>
       </c>
-      <c r="M223" s="5">
-        <v>9.0579999999999998</v>
+      <c r="M223" s="6">
+        <v>9058</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
@@ -9842,20 +9857,20 @@
       <c r="D224" s="4">
         <v>36</v>
       </c>
-      <c r="E224" s="4">
-        <v>1.0249999999999999</v>
+      <c r="E224" s="5">
+        <v>1025</v>
       </c>
       <c r="F224" s="4">
         <v>977</v>
       </c>
-      <c r="G224" s="4">
-        <v>1.2210000000000001</v>
-      </c>
-      <c r="H224" s="4">
-        <v>2.7389999999999999</v>
-      </c>
-      <c r="I224" s="4">
-        <v>2.0680000000000001</v>
+      <c r="G224" s="5">
+        <v>1221</v>
+      </c>
+      <c r="H224" s="5">
+        <v>2739</v>
+      </c>
+      <c r="I224" s="5">
+        <v>2068</v>
       </c>
       <c r="J224" s="4">
         <v>195</v>
@@ -9866,8 +9881,8 @@
       <c r="L224" s="4">
         <v>153</v>
       </c>
-      <c r="M224" s="5">
-        <v>8.4570000000000007</v>
+      <c r="M224" s="6">
+        <v>8457</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
@@ -9881,20 +9896,20 @@
       <c r="D225" s="4">
         <v>175</v>
       </c>
-      <c r="E225" s="4">
-        <v>2.286</v>
+      <c r="E225" s="5">
+        <v>2286</v>
       </c>
       <c r="F225" s="4">
         <v>904</v>
       </c>
-      <c r="G225" s="4">
-        <v>1.1879999999999999</v>
-      </c>
-      <c r="H225" s="4">
-        <v>2.0139999999999998</v>
-      </c>
-      <c r="I225" s="4">
-        <v>1.083</v>
+      <c r="G225" s="5">
+        <v>1188</v>
+      </c>
+      <c r="H225" s="5">
+        <v>2014</v>
+      </c>
+      <c r="I225" s="5">
+        <v>1083</v>
       </c>
       <c r="J225" s="4">
         <v>92</v>
@@ -9905,8 +9920,8 @@
       <c r="L225" s="4">
         <v>133</v>
       </c>
-      <c r="M225" s="5">
-        <v>7.95</v>
+      <c r="M225" s="6">
+        <v>7950</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
@@ -9922,20 +9937,20 @@
       <c r="D226" s="4">
         <v>40</v>
       </c>
-      <c r="E226" s="4">
-        <v>1.1539999999999999</v>
-      </c>
-      <c r="F226" s="4">
-        <v>1.1910000000000001</v>
-      </c>
-      <c r="G226" s="4">
-        <v>1.1719999999999999</v>
-      </c>
-      <c r="H226" s="4">
-        <v>1.754</v>
-      </c>
-      <c r="I226" s="4">
-        <v>1.2410000000000001</v>
+      <c r="E226" s="5">
+        <v>1154</v>
+      </c>
+      <c r="F226" s="5">
+        <v>1191</v>
+      </c>
+      <c r="G226" s="5">
+        <v>1172</v>
+      </c>
+      <c r="H226" s="5">
+        <v>1754</v>
+      </c>
+      <c r="I226" s="5">
+        <v>1241</v>
       </c>
       <c r="J226" s="4">
         <v>125</v>
@@ -9946,8 +9961,8 @@
       <c r="L226" s="4">
         <v>157</v>
       </c>
-      <c r="M226" s="5">
-        <v>6.8819999999999997</v>
+      <c r="M226" s="6">
+        <v>6882</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
@@ -9961,8 +9976,8 @@
       <c r="D227" s="4">
         <v>242</v>
       </c>
-      <c r="E227" s="4">
-        <v>2.3420000000000001</v>
+      <c r="E227" s="5">
+        <v>2342</v>
       </c>
       <c r="F227" s="4">
         <v>722</v>
@@ -9970,8 +9985,8 @@
       <c r="G227" s="4">
         <v>984</v>
       </c>
-      <c r="H227" s="4">
-        <v>1.4279999999999999</v>
+      <c r="H227" s="5">
+        <v>1428</v>
       </c>
       <c r="I227" s="4">
         <v>605</v>
@@ -9985,8 +10000,8 @@
       <c r="L227" s="4">
         <v>123</v>
       </c>
-      <c r="M227" s="5">
-        <v>6.5750000000000002</v>
+      <c r="M227" s="6">
+        <v>6575</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
@@ -10002,17 +10017,17 @@
       <c r="D228" s="4">
         <v>52</v>
       </c>
-      <c r="E228" s="4">
-        <v>1.204</v>
-      </c>
-      <c r="F228" s="4">
-        <v>1.0409999999999999</v>
-      </c>
-      <c r="G228" s="4">
-        <v>1.1120000000000001</v>
-      </c>
-      <c r="H228" s="4">
-        <v>1.65</v>
+      <c r="E228" s="5">
+        <v>1204</v>
+      </c>
+      <c r="F228" s="5">
+        <v>1041</v>
+      </c>
+      <c r="G228" s="5">
+        <v>1112</v>
+      </c>
+      <c r="H228" s="5">
+        <v>1650</v>
       </c>
       <c r="I228" s="4">
         <v>780</v>
@@ -10026,8 +10041,8 @@
       <c r="L228" s="4">
         <v>169</v>
       </c>
-      <c r="M228" s="5">
-        <v>6.1429999999999998</v>
+      <c r="M228" s="6">
+        <v>6143</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
@@ -10041,8 +10056,8 @@
       <c r="D229" s="4">
         <v>408</v>
       </c>
-      <c r="E229" s="4">
-        <v>2.621</v>
+      <c r="E229" s="5">
+        <v>2621</v>
       </c>
       <c r="F229" s="4">
         <v>502</v>
@@ -10050,8 +10065,8 @@
       <c r="G229" s="4">
         <v>805</v>
       </c>
-      <c r="H229" s="4">
-        <v>1.2689999999999999</v>
+      <c r="H229" s="5">
+        <v>1269</v>
       </c>
       <c r="I229" s="4">
         <v>392</v>
@@ -10065,8 +10080,8 @@
       <c r="L229" s="4">
         <v>172</v>
       </c>
-      <c r="M229" s="5">
-        <v>6.36</v>
+      <c r="M229" s="6">
+        <v>6360</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
@@ -10082,8 +10097,8 @@
       <c r="D230" s="4">
         <v>79</v>
       </c>
-      <c r="E230" s="4">
-        <v>1.4710000000000001</v>
+      <c r="E230" s="5">
+        <v>1471</v>
       </c>
       <c r="F230" s="4">
         <v>547</v>
@@ -10091,8 +10106,8 @@
       <c r="G230" s="4">
         <v>674</v>
       </c>
-      <c r="H230" s="4">
-        <v>1.4139999999999999</v>
+      <c r="H230" s="5">
+        <v>1414</v>
       </c>
       <c r="I230" s="4">
         <v>549</v>
@@ -10106,8 +10121,8 @@
       <c r="L230" s="4">
         <v>157</v>
       </c>
-      <c r="M230" s="5">
-        <v>4.9729999999999999</v>
+      <c r="M230" s="6">
+        <v>4973</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
@@ -10121,8 +10136,8 @@
       <c r="D231" s="4">
         <v>687</v>
       </c>
-      <c r="E231" s="4">
-        <v>2.3730000000000002</v>
+      <c r="E231" s="5">
+        <v>2373</v>
       </c>
       <c r="F231" s="4">
         <v>242</v>
@@ -10145,8 +10160,8 @@
       <c r="L231" s="4">
         <v>122</v>
       </c>
-      <c r="M231" s="5">
-        <v>5.3049999999999997</v>
+      <c r="M231" s="6">
+        <v>5305</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
@@ -10162,8 +10177,8 @@
       <c r="D232" s="4">
         <v>96</v>
       </c>
-      <c r="E232" s="4">
-        <v>1.611</v>
+      <c r="E232" s="5">
+        <v>1611</v>
       </c>
       <c r="F232" s="4">
         <v>263</v>
@@ -10186,8 +10201,8 @@
       <c r="L232" s="4">
         <v>129</v>
       </c>
-      <c r="M232" s="5">
-        <v>4.0759999999999996</v>
+      <c r="M232" s="6">
+        <v>4076</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
@@ -10201,8 +10216,8 @@
       <c r="D233" s="4">
         <v>830</v>
       </c>
-      <c r="E233" s="4">
-        <v>1.913</v>
+      <c r="E233" s="5">
+        <v>1913</v>
       </c>
       <c r="F233" s="4">
         <v>80</v>
@@ -10225,8 +10240,8 @@
       <c r="L233" s="4">
         <v>98</v>
       </c>
-      <c r="M233" s="5">
-        <v>4.3470000000000004</v>
+      <c r="M233" s="6">
+        <v>4347</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
@@ -10242,8 +10257,8 @@
       <c r="D234" s="4">
         <v>148</v>
       </c>
-      <c r="E234" s="4">
-        <v>1.48</v>
+      <c r="E234" s="5">
+        <v>1480</v>
       </c>
       <c r="F234" s="4">
         <v>76</v>
@@ -10266,8 +10281,8 @@
       <c r="L234" s="4">
         <v>73</v>
       </c>
-      <c r="M234" s="5">
-        <v>2.8849999999999998</v>
+      <c r="M234" s="6">
+        <v>2885</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
@@ -10281,8 +10296,8 @@
       <c r="D235" s="4">
         <v>798</v>
       </c>
-      <c r="E235" s="4">
-        <v>1.093</v>
+      <c r="E235" s="5">
+        <v>1093</v>
       </c>
       <c r="F235" s="4">
         <v>23</v>
@@ -10305,8 +10320,8 @@
       <c r="L235" s="4">
         <v>107</v>
       </c>
-      <c r="M235" s="5">
-        <v>2.9129999999999998</v>
+      <c r="M235" s="6">
+        <v>2913</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
@@ -10322,8 +10337,8 @@
       <c r="D236" s="4">
         <v>327</v>
       </c>
-      <c r="E236" s="4">
-        <v>1.3580000000000001</v>
+      <c r="E236" s="5">
+        <v>1358</v>
       </c>
       <c r="F236" s="4">
         <v>26</v>
@@ -10346,8 +10361,8 @@
       <c r="L236" s="4">
         <v>85</v>
       </c>
-      <c r="M236" s="5">
-        <v>2.6259999999999999</v>
+      <c r="M236" s="6">
+        <v>2626</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
@@ -10358,11 +10373,11 @@
       <c r="C237" s="4">
         <v>752</v>
       </c>
-      <c r="D237" s="4">
-        <v>1.411</v>
-      </c>
-      <c r="E237" s="4">
-        <v>1.0249999999999999</v>
+      <c r="D237" s="5">
+        <v>1411</v>
+      </c>
+      <c r="E237" s="5">
+        <v>1025</v>
       </c>
       <c r="F237" s="4">
         <v>17</v>
@@ -10385,54 +10400,54 @@
       <c r="L237" s="4">
         <v>121</v>
       </c>
-      <c r="M237" s="5">
-        <v>3.7029999999999998</v>
+      <c r="M237" s="6">
+        <v>3703</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B238" s="6"/>
-      <c r="C238" s="5">
-        <v>2.5830000000000002</v>
-      </c>
-      <c r="D238" s="5">
-        <v>6.5549999999999997</v>
-      </c>
-      <c r="E238" s="5">
-        <v>27.675000000000001</v>
-      </c>
-      <c r="F238" s="5">
-        <v>12.596</v>
-      </c>
-      <c r="G238" s="5">
-        <v>22.106000000000002</v>
-      </c>
-      <c r="H238" s="5">
-        <v>51.423999999999999</v>
-      </c>
-      <c r="I238" s="5">
-        <v>35.319000000000003</v>
-      </c>
-      <c r="J238" s="5">
-        <v>2.9809999999999999</v>
-      </c>
-      <c r="K238" s="5">
+      <c r="B238" s="8"/>
+      <c r="C238" s="6">
+        <v>2583</v>
+      </c>
+      <c r="D238" s="6">
+        <v>6555</v>
+      </c>
+      <c r="E238" s="6">
+        <v>27675</v>
+      </c>
+      <c r="F238" s="6">
+        <v>12596</v>
+      </c>
+      <c r="G238" s="6">
+        <v>22106</v>
+      </c>
+      <c r="H238" s="6">
+        <v>51424</v>
+      </c>
+      <c r="I238" s="6">
+        <v>35319</v>
+      </c>
+      <c r="J238" s="6">
+        <v>2981</v>
+      </c>
+      <c r="K238" s="7">
         <v>287</v>
       </c>
-      <c r="L238" s="5">
-        <v>3.129</v>
-      </c>
-      <c r="M238" s="5">
-        <v>164.655</v>
+      <c r="L238" s="6">
+        <v>3129</v>
+      </c>
+      <c r="M238" s="6">
+        <v>164655</v>
       </c>
     </row>
     <row r="239" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A239" s="7" t="s">
+      <c r="A239" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B239" s="7"/>
+      <c r="B239" s="9"/>
       <c r="C239" s="2" t="s">
         <v>2</v>
       </c>
@@ -10486,11 +10501,11 @@
       <c r="F240" s="4">
         <v>5</v>
       </c>
-      <c r="G240" s="4">
-        <v>1.863</v>
-      </c>
-      <c r="H240" s="4">
-        <v>3.4689999999999999</v>
+      <c r="G240" s="5">
+        <v>1863</v>
+      </c>
+      <c r="H240" s="5">
+        <v>3469</v>
       </c>
       <c r="I240" s="4">
         <v>563</v>
@@ -10504,8 +10519,8 @@
       <c r="L240" s="4">
         <v>122</v>
       </c>
-      <c r="M240" s="5">
-        <v>6.1449999999999996</v>
+      <c r="M240" s="6">
+        <v>6145</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
@@ -10525,11 +10540,11 @@
       <c r="F241" s="4">
         <v>1</v>
       </c>
-      <c r="G241" s="4">
-        <v>1.7649999999999999</v>
-      </c>
-      <c r="H241" s="4">
-        <v>3.25</v>
+      <c r="G241" s="5">
+        <v>1765</v>
+      </c>
+      <c r="H241" s="5">
+        <v>3250</v>
       </c>
       <c r="I241" s="4">
         <v>817</v>
@@ -10543,8 +10558,8 @@
       <c r="L241" s="4">
         <v>91</v>
       </c>
-      <c r="M241" s="5">
-        <v>6.1059999999999999</v>
+      <c r="M241" s="6">
+        <v>6106</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
@@ -10566,14 +10581,14 @@
       <c r="F242" s="4">
         <v>54</v>
       </c>
-      <c r="G242" s="4">
-        <v>1.0820000000000001</v>
-      </c>
-      <c r="H242" s="4">
-        <v>1.234</v>
-      </c>
-      <c r="I242" s="4">
-        <v>1.147</v>
+      <c r="G242" s="5">
+        <v>1082</v>
+      </c>
+      <c r="H242" s="5">
+        <v>1234</v>
+      </c>
+      <c r="I242" s="5">
+        <v>1147</v>
       </c>
       <c r="J242" s="4">
         <v>75</v>
@@ -10584,8 +10599,8 @@
       <c r="L242" s="4">
         <v>91</v>
       </c>
-      <c r="M242" s="5">
-        <v>3.8149999999999999</v>
+      <c r="M242" s="6">
+        <v>3815</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.25">
@@ -10611,8 +10626,8 @@
       <c r="H243" s="4">
         <v>820</v>
       </c>
-      <c r="I243" s="4">
-        <v>1.2749999999999999</v>
+      <c r="I243" s="5">
+        <v>1275</v>
       </c>
       <c r="J243" s="4">
         <v>96</v>
@@ -10623,8 +10638,8 @@
       <c r="L243" s="4">
         <v>121</v>
       </c>
-      <c r="M243" s="5">
-        <v>3.8340000000000001</v>
+      <c r="M243" s="6">
+        <v>3834</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.25">
@@ -10649,8 +10664,8 @@
       <c r="G244" s="4">
         <v>512</v>
       </c>
-      <c r="H244" s="4">
-        <v>1.119</v>
+      <c r="H244" s="5">
+        <v>1119</v>
       </c>
       <c r="I244" s="4">
         <v>931</v>
@@ -10664,8 +10679,8 @@
       <c r="L244" s="4">
         <v>111</v>
       </c>
-      <c r="M244" s="5">
-        <v>3.6589999999999998</v>
+      <c r="M244" s="6">
+        <v>3659</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.25">
@@ -10703,8 +10718,8 @@
       <c r="L245" s="4">
         <v>144</v>
       </c>
-      <c r="M245" s="5">
-        <v>3.4550000000000001</v>
+      <c r="M245" s="6">
+        <v>3455</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.25">
@@ -10729,8 +10744,8 @@
       <c r="G246" s="4">
         <v>394</v>
       </c>
-      <c r="H246" s="4">
-        <v>1.095</v>
+      <c r="H246" s="5">
+        <v>1095</v>
       </c>
       <c r="I246" s="4">
         <v>770</v>
@@ -10744,8 +10759,8 @@
       <c r="L246" s="4">
         <v>144</v>
       </c>
-      <c r="M246" s="5">
-        <v>3.8029999999999999</v>
+      <c r="M246" s="6">
+        <v>3803</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.25">
@@ -10783,8 +10798,8 @@
       <c r="L247" s="4">
         <v>124</v>
       </c>
-      <c r="M247" s="5">
-        <v>3.3660000000000001</v>
+      <c r="M247" s="6">
+        <v>3366</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.25">
@@ -10809,8 +10824,8 @@
       <c r="G248" s="4">
         <v>673</v>
       </c>
-      <c r="H248" s="4">
-        <v>1.1379999999999999</v>
+      <c r="H248" s="5">
+        <v>1138</v>
       </c>
       <c r="I248" s="4">
         <v>594</v>
@@ -10824,8 +10839,8 @@
       <c r="L248" s="4">
         <v>106</v>
       </c>
-      <c r="M248" s="5">
-        <v>3.7010000000000001</v>
+      <c r="M248" s="6">
+        <v>3701</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.25">
@@ -10839,8 +10854,8 @@
       <c r="D249" s="4">
         <v>164</v>
       </c>
-      <c r="E249" s="4">
-        <v>1.244</v>
+      <c r="E249" s="5">
+        <v>1244</v>
       </c>
       <c r="F249" s="4">
         <v>341</v>
@@ -10863,8 +10878,8 @@
       <c r="L249" s="4">
         <v>97</v>
       </c>
-      <c r="M249" s="5">
-        <v>3.4620000000000002</v>
+      <c r="M249" s="6">
+        <v>3462</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
@@ -10904,8 +10919,8 @@
       <c r="L250" s="4">
         <v>87</v>
       </c>
-      <c r="M250" s="5">
-        <v>3.1219999999999999</v>
+      <c r="M250" s="6">
+        <v>3122</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.25">
@@ -10919,8 +10934,8 @@
       <c r="D251" s="4">
         <v>122</v>
       </c>
-      <c r="E251" s="4">
-        <v>1.244</v>
+      <c r="E251" s="5">
+        <v>1244</v>
       </c>
       <c r="F251" s="4">
         <v>344</v>
@@ -10943,8 +10958,8 @@
       <c r="L251" s="4">
         <v>83</v>
       </c>
-      <c r="M251" s="5">
-        <v>3.0310000000000001</v>
+      <c r="M251" s="6">
+        <v>3031</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.25">
@@ -10984,8 +10999,8 @@
       <c r="L252" s="4">
         <v>70</v>
       </c>
-      <c r="M252" s="5">
-        <v>2.9910000000000001</v>
+      <c r="M252" s="6">
+        <v>2991</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.25">
@@ -10999,8 +11014,8 @@
       <c r="D253" s="4">
         <v>276</v>
       </c>
-      <c r="E253" s="4">
-        <v>1.2569999999999999</v>
+      <c r="E253" s="5">
+        <v>1257</v>
       </c>
       <c r="F253" s="4">
         <v>306</v>
@@ -11023,8 +11038,8 @@
       <c r="L253" s="4">
         <v>81</v>
       </c>
-      <c r="M253" s="5">
-        <v>2.9489999999999998</v>
+      <c r="M253" s="6">
+        <v>2949</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.25">
@@ -11064,8 +11079,8 @@
       <c r="L254" s="4">
         <v>75</v>
       </c>
-      <c r="M254" s="5">
-        <v>2.782</v>
+      <c r="M254" s="6">
+        <v>2782</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.25">
@@ -11079,8 +11094,8 @@
       <c r="D255" s="4">
         <v>484</v>
       </c>
-      <c r="E255" s="4">
-        <v>1.304</v>
+      <c r="E255" s="5">
+        <v>1304</v>
       </c>
       <c r="F255" s="4">
         <v>197</v>
@@ -11103,8 +11118,8 @@
       <c r="L255" s="4">
         <v>75</v>
       </c>
-      <c r="M255" s="5">
-        <v>2.855</v>
+      <c r="M255" s="6">
+        <v>2855</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.25">
@@ -11144,8 +11159,8 @@
       <c r="L256" s="4">
         <v>65</v>
       </c>
-      <c r="M256" s="5">
-        <v>2.3740000000000001</v>
+      <c r="M256" s="6">
+        <v>2374</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
@@ -11183,8 +11198,8 @@
       <c r="L257" s="4">
         <v>57</v>
       </c>
-      <c r="M257" s="5">
-        <v>2.282</v>
+      <c r="M257" s="6">
+        <v>2282</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.25">
@@ -11224,8 +11239,8 @@
       <c r="L258" s="4">
         <v>50</v>
       </c>
-      <c r="M258" s="5">
-        <v>1.7589999999999999</v>
+      <c r="M258" s="6">
+        <v>1759</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
@@ -11263,8 +11278,8 @@
       <c r="L259" s="4">
         <v>38</v>
       </c>
-      <c r="M259" s="5">
-        <v>1.7809999999999999</v>
+      <c r="M259" s="6">
+        <v>1781</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.25">
@@ -11304,8 +11319,8 @@
       <c r="L260" s="4">
         <v>28</v>
       </c>
-      <c r="M260" s="5">
-        <v>1.1499999999999999</v>
+      <c r="M260" s="6">
+        <v>1150</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.25">
@@ -11343,8 +11358,8 @@
       <c r="L261" s="4">
         <v>27</v>
       </c>
-      <c r="M261" s="5">
-        <v>1.331</v>
+      <c r="M261" s="6">
+        <v>1331</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
@@ -11384,8 +11399,8 @@
       <c r="L262" s="4">
         <v>27</v>
       </c>
-      <c r="M262" s="5">
-        <v>1.1639999999999999</v>
+      <c r="M262" s="6">
+        <v>1164</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
@@ -11396,8 +11411,8 @@
       <c r="C263" s="4">
         <v>437</v>
       </c>
-      <c r="D263" s="4">
-        <v>1.0189999999999999</v>
+      <c r="D263" s="5">
+        <v>1019</v>
       </c>
       <c r="E263" s="4">
         <v>242</v>
@@ -11423,54 +11438,54 @@
       <c r="L263" s="4">
         <v>32</v>
       </c>
-      <c r="M263" s="5">
-        <v>1.7809999999999999</v>
+      <c r="M263" s="6">
+        <v>1781</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B264" s="6"/>
-      <c r="C264" s="5">
-        <v>1.659</v>
-      </c>
-      <c r="D264" s="5">
-        <v>5.76</v>
-      </c>
-      <c r="E264" s="5">
-        <v>14.739000000000001</v>
-      </c>
-      <c r="F264" s="5">
-        <v>6.9379999999999997</v>
-      </c>
-      <c r="G264" s="5">
-        <v>12.808</v>
-      </c>
-      <c r="H264" s="5">
-        <v>18.451000000000001</v>
-      </c>
-      <c r="I264" s="5">
-        <v>9.5120000000000005</v>
-      </c>
-      <c r="J264" s="5">
+      <c r="B264" s="8"/>
+      <c r="C264" s="6">
+        <v>1659</v>
+      </c>
+      <c r="D264" s="6">
+        <v>5760</v>
+      </c>
+      <c r="E264" s="6">
+        <v>14739</v>
+      </c>
+      <c r="F264" s="6">
+        <v>6938</v>
+      </c>
+      <c r="G264" s="6">
+        <v>12808</v>
+      </c>
+      <c r="H264" s="6">
+        <v>18451</v>
+      </c>
+      <c r="I264" s="6">
+        <v>9512</v>
+      </c>
+      <c r="J264" s="7">
         <v>814</v>
       </c>
-      <c r="K264" s="5">
+      <c r="K264" s="7">
         <v>71</v>
       </c>
-      <c r="L264" s="5">
-        <v>1.946</v>
-      </c>
-      <c r="M264" s="5">
-        <v>72.697999999999993</v>
+      <c r="L264" s="6">
+        <v>1946</v>
+      </c>
+      <c r="M264" s="6">
+        <v>72698</v>
       </c>
     </row>
     <row r="265" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A265" s="7" t="s">
+      <c r="A265" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B265" s="7"/>
+      <c r="B265" s="9"/>
       <c r="C265" s="2" t="s">
         <v>2</v>
       </c>
@@ -11542,7 +11557,7 @@
       <c r="L266" s="4">
         <v>22</v>
       </c>
-      <c r="M266" s="5">
+      <c r="M266" s="7">
         <v>967</v>
       </c>
     </row>
@@ -11581,7 +11596,7 @@
       <c r="L267" s="4">
         <v>7</v>
       </c>
-      <c r="M267" s="5">
+      <c r="M267" s="7">
         <v>749</v>
       </c>
     </row>
@@ -11622,7 +11637,7 @@
       <c r="L268" s="4">
         <v>11</v>
       </c>
-      <c r="M268" s="5">
+      <c r="M268" s="7">
         <v>663</v>
       </c>
     </row>
@@ -11661,7 +11676,7 @@
       <c r="L269" s="4">
         <v>12</v>
       </c>
-      <c r="M269" s="5">
+      <c r="M269" s="7">
         <v>374</v>
       </c>
     </row>
@@ -11702,7 +11717,7 @@
       <c r="L270" s="4">
         <v>13</v>
       </c>
-      <c r="M270" s="5">
+      <c r="M270" s="7">
         <v>479</v>
       </c>
     </row>
@@ -11741,7 +11756,7 @@
       <c r="L271" s="4">
         <v>14</v>
       </c>
-      <c r="M271" s="5">
+      <c r="M271" s="7">
         <v>355</v>
       </c>
     </row>
@@ -11782,7 +11797,7 @@
       <c r="L272" s="4">
         <v>15</v>
       </c>
-      <c r="M272" s="5">
+      <c r="M272" s="7">
         <v>447</v>
       </c>
     </row>
@@ -11821,7 +11836,7 @@
       <c r="L273" s="4">
         <v>9</v>
       </c>
-      <c r="M273" s="5">
+      <c r="M273" s="7">
         <v>360</v>
       </c>
     </row>
@@ -11862,7 +11877,7 @@
       <c r="L274" s="4">
         <v>15</v>
       </c>
-      <c r="M274" s="5">
+      <c r="M274" s="7">
         <v>467</v>
       </c>
     </row>
@@ -11901,7 +11916,7 @@
       <c r="L275" s="4">
         <v>10</v>
       </c>
-      <c r="M275" s="5">
+      <c r="M275" s="7">
         <v>419</v>
       </c>
     </row>
@@ -11942,7 +11957,7 @@
       <c r="L276" s="4">
         <v>13</v>
       </c>
-      <c r="M276" s="5">
+      <c r="M276" s="7">
         <v>381</v>
       </c>
     </row>
@@ -11981,7 +11996,7 @@
       <c r="L277" s="4">
         <v>10</v>
       </c>
-      <c r="M277" s="5">
+      <c r="M277" s="7">
         <v>373</v>
       </c>
     </row>
@@ -12022,7 +12037,7 @@
       <c r="L278" s="4">
         <v>7</v>
       </c>
-      <c r="M278" s="5">
+      <c r="M278" s="7">
         <v>373</v>
       </c>
     </row>
@@ -12061,7 +12076,7 @@
       <c r="L279" s="4">
         <v>12</v>
       </c>
-      <c r="M279" s="5">
+      <c r="M279" s="7">
         <v>347</v>
       </c>
     </row>
@@ -12102,7 +12117,7 @@
       <c r="L280" s="4">
         <v>11</v>
       </c>
-      <c r="M280" s="5">
+      <c r="M280" s="7">
         <v>345</v>
       </c>
     </row>
@@ -12141,7 +12156,7 @@
       <c r="L281" s="4">
         <v>10</v>
       </c>
-      <c r="M281" s="5">
+      <c r="M281" s="7">
         <v>331</v>
       </c>
     </row>
@@ -12182,7 +12197,7 @@
       <c r="L282" s="4">
         <v>8</v>
       </c>
-      <c r="M282" s="5">
+      <c r="M282" s="7">
         <v>307</v>
       </c>
     </row>
@@ -12221,7 +12236,7 @@
       <c r="L283" s="4">
         <v>8</v>
       </c>
-      <c r="M283" s="5">
+      <c r="M283" s="7">
         <v>305</v>
       </c>
     </row>
@@ -12262,7 +12277,7 @@
       <c r="L284" s="4">
         <v>7</v>
       </c>
-      <c r="M284" s="5">
+      <c r="M284" s="7">
         <v>223</v>
       </c>
     </row>
@@ -12301,7 +12316,7 @@
       <c r="L285" s="4">
         <v>4</v>
       </c>
-      <c r="M285" s="5">
+      <c r="M285" s="7">
         <v>265</v>
       </c>
     </row>
@@ -12342,7 +12357,7 @@
       <c r="L286" s="4">
         <v>3</v>
       </c>
-      <c r="M286" s="5">
+      <c r="M286" s="7">
         <v>148</v>
       </c>
     </row>
@@ -12381,7 +12396,7 @@
       <c r="L287" s="4">
         <v>1</v>
       </c>
-      <c r="M287" s="5">
+      <c r="M287" s="7">
         <v>184</v>
       </c>
     </row>
@@ -12422,7 +12437,7 @@
       <c r="L288" s="4">
         <v>2</v>
       </c>
-      <c r="M288" s="5">
+      <c r="M288" s="7">
         <v>169</v>
       </c>
     </row>
@@ -12461,7 +12476,7 @@
       <c r="L289" s="4">
         <v>1</v>
       </c>
-      <c r="M289" s="5">
+      <c r="M289" s="7">
         <v>247</v>
       </c>
     </row>
@@ -12469,46 +12484,46 @@
       <c r="A290" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B290" s="6"/>
-      <c r="C290" s="5">
+      <c r="B290" s="8"/>
+      <c r="C290" s="7">
         <v>233</v>
       </c>
-      <c r="D290" s="5">
+      <c r="D290" s="7">
         <v>961</v>
       </c>
-      <c r="E290" s="5">
-        <v>2.0779999999999998</v>
-      </c>
-      <c r="F290" s="5">
-        <v>1.004</v>
-      </c>
-      <c r="G290" s="5">
-        <v>1.6379999999999999</v>
-      </c>
-      <c r="H290" s="5">
-        <v>2.1230000000000002</v>
-      </c>
-      <c r="I290" s="5">
+      <c r="E290" s="6">
+        <v>2078</v>
+      </c>
+      <c r="F290" s="6">
+        <v>1004</v>
+      </c>
+      <c r="G290" s="6">
+        <v>1638</v>
+      </c>
+      <c r="H290" s="6">
+        <v>2123</v>
+      </c>
+      <c r="I290" s="7">
         <v>954</v>
       </c>
-      <c r="J290" s="5">
+      <c r="J290" s="7">
         <v>59</v>
       </c>
-      <c r="K290" s="5">
+      <c r="K290" s="7">
         <v>3</v>
       </c>
-      <c r="L290" s="5">
+      <c r="L290" s="7">
         <v>225</v>
       </c>
-      <c r="M290" s="5">
-        <v>9.2780000000000005</v>
+      <c r="M290" s="6">
+        <v>9278</v>
       </c>
     </row>
     <row r="291" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A291" s="7" t="s">
+      <c r="A291" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B291" s="7"/>
+      <c r="B291" s="9"/>
       <c r="C291" s="2" t="s">
         <v>2</v>
       </c>
@@ -12565,8 +12580,8 @@
       <c r="G292" s="4">
         <v>459</v>
       </c>
-      <c r="H292" s="4">
-        <v>1.538</v>
+      <c r="H292" s="5">
+        <v>1538</v>
       </c>
       <c r="I292" s="4">
         <v>310</v>
@@ -12580,8 +12595,8 @@
       <c r="L292" s="4">
         <v>33</v>
       </c>
-      <c r="M292" s="5">
-        <v>2.359</v>
+      <c r="M292" s="6">
+        <v>2359</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
@@ -12604,8 +12619,8 @@
       <c r="G293" s="4">
         <v>460</v>
       </c>
-      <c r="H293" s="4">
-        <v>1.4330000000000001</v>
+      <c r="H293" s="5">
+        <v>1433</v>
       </c>
       <c r="I293" s="4">
         <v>413</v>
@@ -12619,8 +12634,8 @@
       <c r="L293" s="4">
         <v>20</v>
       </c>
-      <c r="M293" s="5">
-        <v>2.347</v>
+      <c r="M293" s="6">
+        <v>2347</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.25">
@@ -12660,8 +12675,8 @@
       <c r="L294" s="4">
         <v>24</v>
       </c>
-      <c r="M294" s="5">
-        <v>1.5680000000000001</v>
+      <c r="M294" s="6">
+        <v>1568</v>
       </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.25">
@@ -12699,8 +12714,8 @@
       <c r="L295" s="4">
         <v>33</v>
       </c>
-      <c r="M295" s="5">
-        <v>1.7230000000000001</v>
+      <c r="M295" s="6">
+        <v>1723</v>
       </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.25">
@@ -12740,8 +12755,8 @@
       <c r="L296" s="4">
         <v>25</v>
       </c>
-      <c r="M296" s="5">
-        <v>1.5209999999999999</v>
+      <c r="M296" s="6">
+        <v>1521</v>
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.25">
@@ -12779,8 +12794,8 @@
       <c r="L297" s="4">
         <v>24</v>
       </c>
-      <c r="M297" s="5">
-        <v>1.5489999999999999</v>
+      <c r="M297" s="6">
+        <v>1549</v>
       </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.25">
@@ -12820,8 +12835,8 @@
       <c r="L298" s="4">
         <v>30</v>
       </c>
-      <c r="M298" s="5">
-        <v>1.7090000000000001</v>
+      <c r="M298" s="6">
+        <v>1709</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.25">
@@ -12859,8 +12874,8 @@
       <c r="L299" s="4">
         <v>29</v>
       </c>
-      <c r="M299" s="5">
-        <v>1.6040000000000001</v>
+      <c r="M299" s="6">
+        <v>1604</v>
       </c>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.25">
@@ -12900,8 +12915,8 @@
       <c r="L300" s="4">
         <v>21</v>
       </c>
-      <c r="M300" s="5">
-        <v>1.704</v>
+      <c r="M300" s="6">
+        <v>1704</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.25">
@@ -12939,8 +12954,8 @@
       <c r="L301" s="4">
         <v>22</v>
       </c>
-      <c r="M301" s="5">
-        <v>1.5660000000000001</v>
+      <c r="M301" s="6">
+        <v>1566</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.25">
@@ -12980,8 +12995,8 @@
       <c r="L302" s="4">
         <v>16</v>
       </c>
-      <c r="M302" s="5">
-        <v>1.4390000000000001</v>
+      <c r="M302" s="6">
+        <v>1439</v>
       </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.25">
@@ -13019,8 +13034,8 @@
       <c r="L303" s="4">
         <v>14</v>
       </c>
-      <c r="M303" s="5">
-        <v>1.339</v>
+      <c r="M303" s="6">
+        <v>1339</v>
       </c>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.25">
@@ -13060,8 +13075,8 @@
       <c r="L304" s="4">
         <v>17</v>
       </c>
-      <c r="M304" s="5">
-        <v>1.2470000000000001</v>
+      <c r="M304" s="6">
+        <v>1247</v>
       </c>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.25">
@@ -13099,8 +13114,8 @@
       <c r="L305" s="4">
         <v>16</v>
       </c>
-      <c r="M305" s="5">
-        <v>1.2370000000000001</v>
+      <c r="M305" s="6">
+        <v>1237</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.25">
@@ -13140,8 +13155,8 @@
       <c r="L306" s="4">
         <v>5</v>
       </c>
-      <c r="M306" s="5">
-        <v>1.0860000000000001</v>
+      <c r="M306" s="6">
+        <v>1086</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.25">
@@ -13179,7 +13194,7 @@
       <c r="L307" s="4">
         <v>9</v>
       </c>
-      <c r="M307" s="5">
+      <c r="M307" s="7">
         <v>964</v>
       </c>
     </row>
@@ -13220,7 +13235,7 @@
       <c r="L308" s="4">
         <v>13</v>
       </c>
-      <c r="M308" s="5">
+      <c r="M308" s="7">
         <v>768</v>
       </c>
     </row>
@@ -13259,7 +13274,7 @@
       <c r="L309" s="4">
         <v>10</v>
       </c>
-      <c r="M309" s="5">
+      <c r="M309" s="7">
         <v>825</v>
       </c>
     </row>
@@ -13300,7 +13315,7 @@
       <c r="L310" s="4">
         <v>5</v>
       </c>
-      <c r="M310" s="5">
+      <c r="M310" s="7">
         <v>580</v>
       </c>
     </row>
@@ -13339,7 +13354,7 @@
       <c r="L311" s="4">
         <v>10</v>
       </c>
-      <c r="M311" s="5">
+      <c r="M311" s="7">
         <v>665</v>
       </c>
     </row>
@@ -13380,7 +13395,7 @@
       <c r="L312" s="4">
         <v>2</v>
       </c>
-      <c r="M312" s="5">
+      <c r="M312" s="7">
         <v>476</v>
       </c>
     </row>
@@ -13419,7 +13434,7 @@
       <c r="L313" s="4">
         <v>3</v>
       </c>
-      <c r="M313" s="5">
+      <c r="M313" s="7">
         <v>495</v>
       </c>
     </row>
@@ -13460,7 +13475,7 @@
       <c r="L314" s="4">
         <v>1</v>
       </c>
-      <c r="M314" s="5">
+      <c r="M314" s="7">
         <v>334</v>
       </c>
     </row>
@@ -13499,7 +13514,7 @@
       <c r="L315" s="4">
         <v>3</v>
       </c>
-      <c r="M315" s="5">
+      <c r="M315" s="7">
         <v>550</v>
       </c>
     </row>
@@ -13507,46 +13522,46 @@
       <c r="A316" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B316" s="6"/>
-      <c r="C316" s="5">
+      <c r="B316" s="8"/>
+      <c r="C316" s="7">
         <v>365</v>
       </c>
-      <c r="D316" s="5">
-        <v>1.1020000000000001</v>
-      </c>
-      <c r="E316" s="5">
-        <v>5.5810000000000004</v>
-      </c>
-      <c r="F316" s="5">
-        <v>2.6440000000000001</v>
-      </c>
-      <c r="G316" s="5">
-        <v>4.8639999999999999</v>
-      </c>
-      <c r="H316" s="5">
-        <v>9.9149999999999991</v>
-      </c>
-      <c r="I316" s="5">
-        <v>4.5209999999999999</v>
-      </c>
-      <c r="J316" s="5">
+      <c r="D316" s="6">
+        <v>1102</v>
+      </c>
+      <c r="E316" s="6">
+        <v>5581</v>
+      </c>
+      <c r="F316" s="6">
+        <v>2644</v>
+      </c>
+      <c r="G316" s="6">
+        <v>4864</v>
+      </c>
+      <c r="H316" s="6">
+        <v>9915</v>
+      </c>
+      <c r="I316" s="6">
+        <v>4521</v>
+      </c>
+      <c r="J316" s="7">
         <v>269</v>
       </c>
-      <c r="K316" s="5">
+      <c r="K316" s="7">
         <v>9</v>
       </c>
-      <c r="L316" s="5">
+      <c r="L316" s="7">
         <v>385</v>
       </c>
-      <c r="M316" s="5">
-        <v>29.655000000000001</v>
+      <c r="M316" s="6">
+        <v>29655</v>
       </c>
     </row>
     <row r="317" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A317" s="7" t="s">
+      <c r="A317" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B317" s="7"/>
+      <c r="B317" s="9"/>
       <c r="C317" s="2" t="s">
         <v>2</v>
       </c>
@@ -13600,11 +13615,11 @@
       <c r="F318" s="4">
         <v>3</v>
       </c>
-      <c r="G318" s="4">
-        <v>2.391</v>
-      </c>
-      <c r="H318" s="4">
-        <v>3.3109999999999999</v>
+      <c r="G318" s="5">
+        <v>2391</v>
+      </c>
+      <c r="H318" s="5">
+        <v>3311</v>
       </c>
       <c r="I318" s="4">
         <v>475</v>
@@ -13618,8 +13633,8 @@
       <c r="L318" s="4">
         <v>241</v>
       </c>
-      <c r="M318" s="5">
-        <v>6.5709999999999997</v>
+      <c r="M318" s="6">
+        <v>6571</v>
       </c>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.25">
@@ -13639,11 +13654,11 @@
       <c r="F319" s="4">
         <v>5</v>
       </c>
-      <c r="G319" s="4">
-        <v>2.3239999999999998</v>
-      </c>
-      <c r="H319" s="4">
-        <v>2.7930000000000001</v>
+      <c r="G319" s="5">
+        <v>2324</v>
+      </c>
+      <c r="H319" s="5">
+        <v>2793</v>
       </c>
       <c r="I319" s="4">
         <v>663</v>
@@ -13657,8 +13672,8 @@
       <c r="L319" s="4">
         <v>235</v>
       </c>
-      <c r="M319" s="5">
-        <v>6.46</v>
+      <c r="M319" s="6">
+        <v>6460</v>
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.25">
@@ -13680,11 +13695,11 @@
       <c r="F320" s="4">
         <v>90</v>
       </c>
-      <c r="G320" s="4">
-        <v>1.2569999999999999</v>
-      </c>
-      <c r="H320" s="4">
-        <v>1.0289999999999999</v>
+      <c r="G320" s="5">
+        <v>1257</v>
+      </c>
+      <c r="H320" s="5">
+        <v>1029</v>
       </c>
       <c r="I320" s="4">
         <v>892</v>
@@ -13698,8 +13713,8 @@
       <c r="L320" s="4">
         <v>243</v>
       </c>
-      <c r="M320" s="5">
-        <v>3.75</v>
+      <c r="M320" s="6">
+        <v>3750</v>
       </c>
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.25">
@@ -13737,8 +13752,8 @@
       <c r="L321" s="4">
         <v>377</v>
       </c>
-      <c r="M321" s="5">
-        <v>3.8290000000000002</v>
+      <c r="M321" s="6">
+        <v>3829</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.25">
@@ -13778,8 +13793,8 @@
       <c r="L322" s="4">
         <v>296</v>
       </c>
-      <c r="M322" s="5">
-        <v>3.359</v>
+      <c r="M322" s="6">
+        <v>3359</v>
       </c>
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.25">
@@ -13817,8 +13832,8 @@
       <c r="L323" s="4">
         <v>465</v>
       </c>
-      <c r="M323" s="5">
-        <v>3.2810000000000001</v>
+      <c r="M323" s="6">
+        <v>3281</v>
       </c>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.25">
@@ -13858,8 +13873,8 @@
       <c r="L324" s="4">
         <v>400</v>
       </c>
-      <c r="M324" s="5">
-        <v>3.5640000000000001</v>
+      <c r="M324" s="6">
+        <v>3564</v>
       </c>
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.25">
@@ -13873,8 +13888,8 @@
       <c r="D325" s="4">
         <v>215</v>
       </c>
-      <c r="E325" s="4">
-        <v>1.0029999999999999</v>
+      <c r="E325" s="5">
+        <v>1003</v>
       </c>
       <c r="F325" s="4">
         <v>476</v>
@@ -13897,8 +13912,8 @@
       <c r="L325" s="4">
         <v>427</v>
       </c>
-      <c r="M325" s="5">
-        <v>3.2930000000000001</v>
+      <c r="M325" s="6">
+        <v>3293</v>
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.25">
@@ -13938,8 +13953,8 @@
       <c r="L326" s="4">
         <v>370</v>
       </c>
-      <c r="M326" s="5">
-        <v>3.2850000000000001</v>
+      <c r="M326" s="6">
+        <v>3285</v>
       </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.25">
@@ -13953,8 +13968,8 @@
       <c r="D327" s="4">
         <v>189</v>
       </c>
-      <c r="E327" s="4">
-        <v>1.1839999999999999</v>
+      <c r="E327" s="5">
+        <v>1184</v>
       </c>
       <c r="F327" s="4">
         <v>263</v>
@@ -13977,8 +13992,8 @@
       <c r="L327" s="4">
         <v>342</v>
       </c>
-      <c r="M327" s="5">
-        <v>3.0790000000000002</v>
+      <c r="M327" s="6">
+        <v>3079</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.25">
@@ -14018,8 +14033,8 @@
       <c r="L328" s="4">
         <v>269</v>
       </c>
-      <c r="M328" s="5">
-        <v>2.6320000000000001</v>
+      <c r="M328" s="6">
+        <v>2632</v>
       </c>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.25">
@@ -14033,8 +14048,8 @@
       <c r="D329" s="4">
         <v>213</v>
       </c>
-      <c r="E329" s="4">
-        <v>1.0069999999999999</v>
+      <c r="E329" s="5">
+        <v>1007</v>
       </c>
       <c r="F329" s="4">
         <v>270</v>
@@ -14057,8 +14072,8 @@
       <c r="L329" s="4">
         <v>226</v>
       </c>
-      <c r="M329" s="5">
-        <v>2.6230000000000002</v>
+      <c r="M329" s="6">
+        <v>2623</v>
       </c>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.25">
@@ -14098,8 +14113,8 @@
       <c r="L330" s="4">
         <v>222</v>
       </c>
-      <c r="M330" s="5">
-        <v>2.3330000000000002</v>
+      <c r="M330" s="6">
+        <v>2333</v>
       </c>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.25">
@@ -14137,8 +14152,8 @@
       <c r="L331" s="4">
         <v>162</v>
       </c>
-      <c r="M331" s="5">
-        <v>2.355</v>
+      <c r="M331" s="6">
+        <v>2355</v>
       </c>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.25">
@@ -14178,8 +14193,8 @@
       <c r="L332" s="4">
         <v>181</v>
       </c>
-      <c r="M332" s="5">
-        <v>2.2240000000000002</v>
+      <c r="M332" s="6">
+        <v>2224</v>
       </c>
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.25">
@@ -14217,8 +14232,8 @@
       <c r="L333" s="4">
         <v>144</v>
       </c>
-      <c r="M333" s="5">
-        <v>2.1360000000000001</v>
+      <c r="M333" s="6">
+        <v>2136</v>
       </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.25">
@@ -14258,8 +14273,8 @@
       <c r="L334" s="4">
         <v>110</v>
       </c>
-      <c r="M334" s="5">
-        <v>1.694</v>
+      <c r="M334" s="6">
+        <v>1694</v>
       </c>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.25">
@@ -14297,8 +14312,8 @@
       <c r="L335" s="4">
         <v>100</v>
       </c>
-      <c r="M335" s="5">
-        <v>1.7669999999999999</v>
+      <c r="M335" s="6">
+        <v>1767</v>
       </c>
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.25">
@@ -14338,8 +14353,8 @@
       <c r="L336" s="4">
         <v>83</v>
       </c>
-      <c r="M336" s="5">
-        <v>1.276</v>
+      <c r="M336" s="6">
+        <v>1276</v>
       </c>
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.25">
@@ -14377,8 +14392,8 @@
       <c r="L337" s="4">
         <v>60</v>
       </c>
-      <c r="M337" s="5">
-        <v>1.38</v>
+      <c r="M337" s="6">
+        <v>1380</v>
       </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.25">
@@ -14418,7 +14433,7 @@
       <c r="L338" s="4">
         <v>51</v>
       </c>
-      <c r="M338" s="5">
+      <c r="M338" s="7">
         <v>790</v>
       </c>
     </row>
@@ -14457,7 +14472,7 @@
       <c r="L339" s="4">
         <v>47</v>
       </c>
-      <c r="M339" s="5">
+      <c r="M339" s="7">
         <v>970</v>
       </c>
     </row>
@@ -14498,7 +14513,7 @@
       <c r="L340" s="4">
         <v>40</v>
       </c>
-      <c r="M340" s="5">
+      <c r="M340" s="7">
         <v>785</v>
       </c>
     </row>
@@ -14537,54 +14552,54 @@
       <c r="L341" s="4">
         <v>31</v>
       </c>
-      <c r="M341" s="5">
-        <v>1.238</v>
+      <c r="M341" s="6">
+        <v>1238</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B342" s="6"/>
-      <c r="C342" s="5">
-        <v>1.631</v>
-      </c>
-      <c r="D342" s="5">
-        <v>5.5540000000000003</v>
-      </c>
-      <c r="E342" s="5">
-        <v>12.574</v>
-      </c>
-      <c r="F342" s="5">
-        <v>6.0179999999999998</v>
-      </c>
-      <c r="G342" s="5">
-        <v>12.157999999999999</v>
-      </c>
-      <c r="H342" s="5">
-        <v>14.569000000000001</v>
-      </c>
-      <c r="I342" s="5">
-        <v>6.5119999999999996</v>
-      </c>
-      <c r="J342" s="5">
+      <c r="B342" s="8"/>
+      <c r="C342" s="6">
+        <v>1631</v>
+      </c>
+      <c r="D342" s="6">
+        <v>5554</v>
+      </c>
+      <c r="E342" s="6">
+        <v>12574</v>
+      </c>
+      <c r="F342" s="6">
+        <v>6018</v>
+      </c>
+      <c r="G342" s="6">
+        <v>12158</v>
+      </c>
+      <c r="H342" s="6">
+        <v>14569</v>
+      </c>
+      <c r="I342" s="6">
+        <v>6512</v>
+      </c>
+      <c r="J342" s="7">
         <v>497</v>
       </c>
-      <c r="K342" s="5">
+      <c r="K342" s="7">
         <v>39</v>
       </c>
-      <c r="L342" s="5">
-        <v>5.1219999999999999</v>
-      </c>
-      <c r="M342" s="5">
-        <v>64.674000000000007</v>
+      <c r="L342" s="6">
+        <v>5122</v>
+      </c>
+      <c r="M342" s="6">
+        <v>64674</v>
       </c>
     </row>
     <row r="343" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A343" s="7" t="s">
+      <c r="A343" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B343" s="7"/>
+      <c r="B343" s="9"/>
       <c r="C343" s="2" t="s">
         <v>2</v>
       </c>
@@ -14638,11 +14653,11 @@
       <c r="F344" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G344" s="4">
-        <v>1.6990000000000001</v>
-      </c>
-      <c r="H344" s="4">
-        <v>3.9820000000000002</v>
+      <c r="G344" s="5">
+        <v>1699</v>
+      </c>
+      <c r="H344" s="5">
+        <v>3982</v>
       </c>
       <c r="I344" s="4">
         <v>778</v>
@@ -14656,8 +14671,8 @@
       <c r="L344" s="4">
         <v>47</v>
       </c>
-      <c r="M344" s="5">
-        <v>6.5419999999999998</v>
+      <c r="M344" s="6">
+        <v>6542</v>
       </c>
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.25">
@@ -14677,14 +14692,14 @@
       <c r="F345" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G345" s="4">
-        <v>1.196</v>
-      </c>
-      <c r="H345" s="4">
-        <v>4.5510000000000002</v>
-      </c>
-      <c r="I345" s="4">
-        <v>1.1990000000000001</v>
+      <c r="G345" s="5">
+        <v>1196</v>
+      </c>
+      <c r="H345" s="5">
+        <v>4551</v>
+      </c>
+      <c r="I345" s="5">
+        <v>1199</v>
       </c>
       <c r="J345" s="4">
         <v>12</v>
@@ -14695,8 +14710,8 @@
       <c r="L345" s="4">
         <v>13</v>
       </c>
-      <c r="M345" s="5">
-        <v>7.0190000000000001</v>
+      <c r="M345" s="6">
+        <v>7019</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.25">
@@ -14718,14 +14733,14 @@
       <c r="F346" s="4">
         <v>10</v>
       </c>
-      <c r="G346" s="4">
-        <v>1.157</v>
+      <c r="G346" s="5">
+        <v>1157</v>
       </c>
       <c r="H346" s="4">
         <v>905</v>
       </c>
-      <c r="I346" s="4">
-        <v>1.5189999999999999</v>
+      <c r="I346" s="5">
+        <v>1519</v>
       </c>
       <c r="J346" s="4">
         <v>134</v>
@@ -14736,8 +14751,8 @@
       <c r="L346" s="4">
         <v>41</v>
       </c>
-      <c r="M346" s="5">
-        <v>3.7919999999999998</v>
+      <c r="M346" s="6">
+        <v>3792</v>
       </c>
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.25">
@@ -14757,14 +14772,14 @@
       <c r="F347" s="4">
         <v>26</v>
       </c>
-      <c r="G347" s="4">
-        <v>1.1919999999999999</v>
+      <c r="G347" s="5">
+        <v>1192</v>
       </c>
       <c r="H347" s="4">
         <v>954</v>
       </c>
-      <c r="I347" s="4">
-        <v>1.8879999999999999</v>
+      <c r="I347" s="5">
+        <v>1888</v>
       </c>
       <c r="J347" s="4">
         <v>117</v>
@@ -14775,8 +14790,8 @@
       <c r="L347" s="4">
         <v>19</v>
       </c>
-      <c r="M347" s="5">
-        <v>4.2359999999999998</v>
+      <c r="M347" s="6">
+        <v>4236</v>
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.25">
@@ -14816,8 +14831,8 @@
       <c r="L348" s="4">
         <v>55</v>
       </c>
-      <c r="M348" s="5">
-        <v>3.2170000000000001</v>
+      <c r="M348" s="6">
+        <v>3217</v>
       </c>
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.25">
@@ -14834,8 +14849,8 @@
       <c r="E349" s="4">
         <v>40</v>
       </c>
-      <c r="F349" s="4">
-        <v>1.0920000000000001</v>
+      <c r="F349" s="5">
+        <v>1092</v>
       </c>
       <c r="G349" s="4">
         <v>369</v>
@@ -14843,8 +14858,8 @@
       <c r="H349" s="4">
         <v>807</v>
       </c>
-      <c r="I349" s="4">
-        <v>1.0149999999999999</v>
+      <c r="I349" s="5">
+        <v>1015</v>
       </c>
       <c r="J349" s="4">
         <v>99</v>
@@ -14855,8 +14870,8 @@
       <c r="L349" s="4">
         <v>39</v>
       </c>
-      <c r="M349" s="5">
-        <v>3.5179999999999998</v>
+      <c r="M349" s="6">
+        <v>3518</v>
       </c>
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.25">
@@ -14896,8 +14911,8 @@
       <c r="L350" s="4">
         <v>216</v>
       </c>
-      <c r="M350" s="5">
-        <v>3.415</v>
+      <c r="M350" s="6">
+        <v>3415</v>
       </c>
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.25">
@@ -14935,8 +14950,8 @@
       <c r="L351" s="4">
         <v>33</v>
       </c>
-      <c r="M351" s="5">
-        <v>3.9820000000000002</v>
+      <c r="M351" s="6">
+        <v>3982</v>
       </c>
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.25">
@@ -14952,8 +14967,8 @@
       <c r="D352" s="4">
         <v>26</v>
       </c>
-      <c r="E352" s="4">
-        <v>1.6870000000000001</v>
+      <c r="E352" s="5">
+        <v>1687</v>
       </c>
       <c r="F352" s="4">
         <v>406</v>
@@ -14976,8 +14991,8 @@
       <c r="L352" s="4">
         <v>205</v>
       </c>
-      <c r="M352" s="5">
-        <v>4.1900000000000004</v>
+      <c r="M352" s="6">
+        <v>4190</v>
       </c>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.25">
@@ -14991,8 +15006,8 @@
       <c r="D353" s="4">
         <v>31</v>
       </c>
-      <c r="E353" s="4">
-        <v>1.8759999999999999</v>
+      <c r="E353" s="5">
+        <v>1876</v>
       </c>
       <c r="F353" s="4">
         <v>468</v>
@@ -15015,8 +15030,8 @@
       <c r="L353" s="4">
         <v>25</v>
       </c>
-      <c r="M353" s="5">
-        <v>4.43</v>
+      <c r="M353" s="6">
+        <v>4430</v>
       </c>
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.25">
@@ -15032,8 +15047,8 @@
       <c r="D354" s="4">
         <v>22</v>
       </c>
-      <c r="E354" s="4">
-        <v>2.0590000000000002</v>
+      <c r="E354" s="5">
+        <v>2059</v>
       </c>
       <c r="F354" s="4">
         <v>471</v>
@@ -15056,8 +15071,8 @@
       <c r="L354" s="4">
         <v>124</v>
       </c>
-      <c r="M354" s="5">
-        <v>4.085</v>
+      <c r="M354" s="6">
+        <v>4085</v>
       </c>
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.25">
@@ -15071,8 +15086,8 @@
       <c r="D355" s="4">
         <v>49</v>
       </c>
-      <c r="E355" s="4">
-        <v>2.073</v>
+      <c r="E355" s="5">
+        <v>2073</v>
       </c>
       <c r="F355" s="4">
         <v>506</v>
@@ -15095,8 +15110,8 @@
       <c r="L355" s="4">
         <v>25</v>
       </c>
-      <c r="M355" s="5">
-        <v>4.101</v>
+      <c r="M355" s="6">
+        <v>4101</v>
       </c>
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.25">
@@ -15112,8 +15127,8 @@
       <c r="D356" s="4">
         <v>14</v>
       </c>
-      <c r="E356" s="4">
-        <v>2.1389999999999998</v>
+      <c r="E356" s="5">
+        <v>2139</v>
       </c>
       <c r="F356" s="4">
         <v>542</v>
@@ -15136,8 +15151,8 @@
       <c r="L356" s="4">
         <v>99</v>
       </c>
-      <c r="M356" s="5">
-        <v>3.984</v>
+      <c r="M356" s="6">
+        <v>3984</v>
       </c>
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.25">
@@ -15151,8 +15166,8 @@
       <c r="D357" s="4">
         <v>111</v>
       </c>
-      <c r="E357" s="4">
-        <v>2.17</v>
+      <c r="E357" s="5">
+        <v>2170</v>
       </c>
       <c r="F357" s="4">
         <v>412</v>
@@ -15175,8 +15190,8 @@
       <c r="L357" s="4">
         <v>30</v>
       </c>
-      <c r="M357" s="5">
-        <v>3.7909999999999999</v>
+      <c r="M357" s="6">
+        <v>3791</v>
       </c>
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.25">
@@ -15192,8 +15207,8 @@
       <c r="D358" s="4">
         <v>30</v>
       </c>
-      <c r="E358" s="4">
-        <v>1.9990000000000001</v>
+      <c r="E358" s="5">
+        <v>1999</v>
       </c>
       <c r="F358" s="4">
         <v>445</v>
@@ -15216,8 +15231,8 @@
       <c r="L358" s="4">
         <v>69</v>
       </c>
-      <c r="M358" s="5">
-        <v>3.6429999999999998</v>
+      <c r="M358" s="6">
+        <v>3643</v>
       </c>
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.25">
@@ -15231,8 +15246,8 @@
       <c r="D359" s="4">
         <v>343</v>
       </c>
-      <c r="E359" s="4">
-        <v>1.9019999999999999</v>
+      <c r="E359" s="5">
+        <v>1902</v>
       </c>
       <c r="F359" s="4">
         <v>244</v>
@@ -15255,8 +15270,8 @@
       <c r="L359" s="4">
         <v>16</v>
       </c>
-      <c r="M359" s="5">
-        <v>3.4870000000000001</v>
+      <c r="M359" s="6">
+        <v>3487</v>
       </c>
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.25">
@@ -15272,8 +15287,8 @@
       <c r="D360" s="4">
         <v>51</v>
       </c>
-      <c r="E360" s="4">
-        <v>1.835</v>
+      <c r="E360" s="5">
+        <v>1835</v>
       </c>
       <c r="F360" s="4">
         <v>225</v>
@@ -15296,8 +15311,8 @@
       <c r="L360" s="4">
         <v>49</v>
       </c>
-      <c r="M360" s="5">
-        <v>3.077</v>
+      <c r="M360" s="6">
+        <v>3077</v>
       </c>
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.25">
@@ -15311,8 +15326,8 @@
       <c r="D361" s="4">
         <v>615</v>
       </c>
-      <c r="E361" s="4">
-        <v>1.4079999999999999</v>
+      <c r="E361" s="5">
+        <v>1408</v>
       </c>
       <c r="F361" s="4">
         <v>108</v>
@@ -15335,8 +15350,8 @@
       <c r="L361" s="4">
         <v>22</v>
       </c>
-      <c r="M361" s="5">
-        <v>2.7989999999999999</v>
+      <c r="M361" s="6">
+        <v>2799</v>
       </c>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.25">
@@ -15352,8 +15367,8 @@
       <c r="D362" s="4">
         <v>88</v>
       </c>
-      <c r="E362" s="4">
-        <v>1.456</v>
+      <c r="E362" s="5">
+        <v>1456</v>
       </c>
       <c r="F362" s="4">
         <v>80</v>
@@ -15376,8 +15391,8 @@
       <c r="L362" s="4">
         <v>24</v>
       </c>
-      <c r="M362" s="5">
-        <v>2.11</v>
+      <c r="M362" s="6">
+        <v>2110</v>
       </c>
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.25">
@@ -15415,8 +15430,8 @@
       <c r="L363" s="4">
         <v>23</v>
       </c>
-      <c r="M363" s="5">
-        <v>2.2440000000000002</v>
+      <c r="M363" s="6">
+        <v>2244</v>
       </c>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.25">
@@ -15456,8 +15471,8 @@
       <c r="L364" s="4">
         <v>12</v>
       </c>
-      <c r="M364" s="5">
-        <v>1.2929999999999999</v>
+      <c r="M364" s="6">
+        <v>1293</v>
       </c>
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.25">
@@ -15495,8 +15510,8 @@
       <c r="L365" s="4">
         <v>13</v>
       </c>
-      <c r="M365" s="5">
-        <v>1.53</v>
+      <c r="M365" s="6">
+        <v>1530</v>
       </c>
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.25">
@@ -15536,8 +15551,8 @@
       <c r="L366" s="4">
         <v>16</v>
       </c>
-      <c r="M366" s="5">
-        <v>1.58</v>
+      <c r="M366" s="6">
+        <v>1580</v>
       </c>
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.25">
@@ -15548,8 +15563,8 @@
       <c r="C367" s="4">
         <v>610</v>
       </c>
-      <c r="D367" s="4">
-        <v>1.24</v>
+      <c r="D367" s="5">
+        <v>1240</v>
       </c>
       <c r="E367" s="4">
         <v>255</v>
@@ -15575,54 +15590,54 @@
       <c r="L367" s="4">
         <v>11</v>
       </c>
-      <c r="M367" s="5">
-        <v>2.141</v>
+      <c r="M367" s="6">
+        <v>2141</v>
       </c>
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B368" s="6"/>
-      <c r="C368" s="5">
-        <v>2.306</v>
-      </c>
-      <c r="D368" s="5">
-        <v>4.9580000000000002</v>
-      </c>
-      <c r="E368" s="5">
-        <v>25.439</v>
-      </c>
-      <c r="F368" s="5">
-        <v>7.6769999999999996</v>
-      </c>
-      <c r="G368" s="5">
-        <v>12.898999999999999</v>
-      </c>
-      <c r="H368" s="5">
-        <v>18.181000000000001</v>
-      </c>
-      <c r="I368" s="5">
-        <v>10.461</v>
-      </c>
-      <c r="J368" s="5">
-        <v>1.006</v>
-      </c>
-      <c r="K368" s="5">
+      <c r="B368" s="8"/>
+      <c r="C368" s="6">
+        <v>2306</v>
+      </c>
+      <c r="D368" s="6">
+        <v>4958</v>
+      </c>
+      <c r="E368" s="6">
+        <v>25439</v>
+      </c>
+      <c r="F368" s="6">
+        <v>7677</v>
+      </c>
+      <c r="G368" s="6">
+        <v>12899</v>
+      </c>
+      <c r="H368" s="6">
+        <v>18181</v>
+      </c>
+      <c r="I368" s="6">
+        <v>10461</v>
+      </c>
+      <c r="J368" s="6">
+        <v>1006</v>
+      </c>
+      <c r="K368" s="7">
         <v>53</v>
       </c>
-      <c r="L368" s="5">
-        <v>1.226</v>
-      </c>
-      <c r="M368" s="5">
-        <v>84.206000000000003</v>
+      <c r="L368" s="6">
+        <v>1226</v>
+      </c>
+      <c r="M368" s="6">
+        <v>84206</v>
       </c>
     </row>
     <row r="369" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A369" s="7" t="s">
+      <c r="A369" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B369" s="7"/>
+      <c r="B369" s="9"/>
       <c r="C369" s="2" t="s">
         <v>2</v>
       </c>
@@ -15679,8 +15694,8 @@
       <c r="G370" s="4">
         <v>507</v>
       </c>
-      <c r="H370" s="4">
-        <v>1.181</v>
+      <c r="H370" s="5">
+        <v>1181</v>
       </c>
       <c r="I370" s="4">
         <v>190</v>
@@ -15694,8 +15709,8 @@
       <c r="L370" s="4">
         <v>142</v>
       </c>
-      <c r="M370" s="5">
-        <v>2.0529999999999999</v>
+      <c r="M370" s="6">
+        <v>2053</v>
       </c>
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.25">
@@ -15733,8 +15748,8 @@
       <c r="L371" s="4">
         <v>115</v>
       </c>
-      <c r="M371" s="5">
-        <v>1.8169999999999999</v>
+      <c r="M371" s="6">
+        <v>1817</v>
       </c>
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.25">
@@ -15774,8 +15789,8 @@
       <c r="L372" s="4">
         <v>143</v>
       </c>
-      <c r="M372" s="5">
-        <v>1.234</v>
+      <c r="M372" s="6">
+        <v>1234</v>
       </c>
     </row>
     <row r="373" spans="1:13" x14ac:dyDescent="0.25">
@@ -15813,8 +15828,8 @@
       <c r="L373" s="4">
         <v>160</v>
       </c>
-      <c r="M373" s="5">
-        <v>1.1220000000000001</v>
+      <c r="M373" s="6">
+        <v>1122</v>
       </c>
     </row>
     <row r="374" spans="1:13" x14ac:dyDescent="0.25">
@@ -15854,8 +15869,8 @@
       <c r="L374" s="4">
         <v>139</v>
       </c>
-      <c r="M374" s="5">
-        <v>1.081</v>
+      <c r="M374" s="6">
+        <v>1081</v>
       </c>
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.25">
@@ -15893,8 +15908,8 @@
       <c r="L375" s="4">
         <v>178</v>
       </c>
-      <c r="M375" s="5">
-        <v>1.0049999999999999</v>
+      <c r="M375" s="6">
+        <v>1005</v>
       </c>
     </row>
     <row r="376" spans="1:13" x14ac:dyDescent="0.25">
@@ -15934,8 +15949,8 @@
       <c r="L376" s="4">
         <v>173</v>
       </c>
-      <c r="M376" s="5">
-        <v>1.1859999999999999</v>
+      <c r="M376" s="6">
+        <v>1186</v>
       </c>
     </row>
     <row r="377" spans="1:13" x14ac:dyDescent="0.25">
@@ -15973,8 +15988,8 @@
       <c r="L377" s="4">
         <v>209</v>
       </c>
-      <c r="M377" s="5">
-        <v>1.081</v>
+      <c r="M377" s="6">
+        <v>1081</v>
       </c>
     </row>
     <row r="378" spans="1:13" x14ac:dyDescent="0.25">
@@ -16014,8 +16029,8 @@
       <c r="L378" s="4">
         <v>168</v>
       </c>
-      <c r="M378" s="5">
-        <v>1.17</v>
+      <c r="M378" s="6">
+        <v>1170</v>
       </c>
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.25">
@@ -16053,8 +16068,8 @@
       <c r="L379" s="4">
         <v>173</v>
       </c>
-      <c r="M379" s="5">
-        <v>1.038</v>
+      <c r="M379" s="6">
+        <v>1038</v>
       </c>
     </row>
     <row r="380" spans="1:13" x14ac:dyDescent="0.25">
@@ -16094,8 +16109,8 @@
       <c r="L380" s="4">
         <v>130</v>
       </c>
-      <c r="M380" s="5">
-        <v>1.0229999999999999</v>
+      <c r="M380" s="6">
+        <v>1023</v>
       </c>
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.25">
@@ -16133,8 +16148,8 @@
       <c r="L381" s="4">
         <v>158</v>
       </c>
-      <c r="M381" s="5">
-        <v>1.012</v>
+      <c r="M381" s="6">
+        <v>1012</v>
       </c>
     </row>
     <row r="382" spans="1:13" x14ac:dyDescent="0.25">
@@ -16174,8 +16189,8 @@
       <c r="L382" s="4">
         <v>96</v>
       </c>
-      <c r="M382" s="5">
-        <v>1.0349999999999999</v>
+      <c r="M382" s="6">
+        <v>1035</v>
       </c>
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.25">
@@ -16213,8 +16228,8 @@
       <c r="L383" s="4">
         <v>167</v>
       </c>
-      <c r="M383" s="5">
-        <v>1.119</v>
+      <c r="M383" s="6">
+        <v>1119</v>
       </c>
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.25">
@@ -16254,8 +16269,8 @@
       <c r="L384" s="4">
         <v>111</v>
       </c>
-      <c r="M384" s="5">
-        <v>1.02</v>
+      <c r="M384" s="6">
+        <v>1020</v>
       </c>
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.25">
@@ -16293,7 +16308,7 @@
       <c r="L385" s="4">
         <v>144</v>
       </c>
-      <c r="M385" s="5">
+      <c r="M385" s="7">
         <v>995</v>
       </c>
     </row>
@@ -16334,7 +16349,7 @@
       <c r="L386" s="4">
         <v>82</v>
       </c>
-      <c r="M386" s="5">
+      <c r="M386" s="7">
         <v>805</v>
       </c>
     </row>
@@ -16373,7 +16388,7 @@
       <c r="L387" s="4">
         <v>124</v>
       </c>
-      <c r="M387" s="5">
+      <c r="M387" s="7">
         <v>879</v>
       </c>
     </row>
@@ -16414,7 +16429,7 @@
       <c r="L388" s="4">
         <v>72</v>
       </c>
-      <c r="M388" s="5">
+      <c r="M388" s="7">
         <v>636</v>
       </c>
     </row>
@@ -16453,7 +16468,7 @@
       <c r="L389" s="4">
         <v>87</v>
       </c>
-      <c r="M389" s="5">
+      <c r="M389" s="7">
         <v>701</v>
       </c>
     </row>
@@ -16494,7 +16509,7 @@
       <c r="L390" s="4">
         <v>55</v>
       </c>
-      <c r="M390" s="5">
+      <c r="M390" s="7">
         <v>464</v>
       </c>
     </row>
@@ -16533,7 +16548,7 @@
       <c r="L391" s="4">
         <v>76</v>
       </c>
-      <c r="M391" s="5">
+      <c r="M391" s="7">
         <v>563</v>
       </c>
     </row>
@@ -16574,7 +16589,7 @@
       <c r="L392" s="4">
         <v>86</v>
       </c>
-      <c r="M392" s="5">
+      <c r="M392" s="7">
         <v>724</v>
       </c>
     </row>
@@ -16613,7 +16628,7 @@
       <c r="L393" s="4">
         <v>96</v>
       </c>
-      <c r="M393" s="5">
+      <c r="M393" s="7">
         <v>913</v>
       </c>
     </row>
@@ -16621,39 +16636,49 @@
       <c r="A394" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B394" s="6"/>
-      <c r="C394" s="5">
+      <c r="B394" s="8"/>
+      <c r="C394" s="7">
         <v>609</v>
       </c>
-      <c r="D394" s="5">
-        <v>1.5980000000000001</v>
-      </c>
-      <c r="E394" s="5">
-        <v>6.1029999999999998</v>
-      </c>
-      <c r="F394" s="5">
-        <v>2.121</v>
-      </c>
-      <c r="G394" s="5">
-        <v>3.7109999999999999</v>
-      </c>
-      <c r="H394" s="5">
-        <v>5.0570000000000004</v>
-      </c>
-      <c r="I394" s="5">
-        <v>2.2469999999999999</v>
-      </c>
-      <c r="J394" s="5">
+      <c r="D394" s="6">
+        <v>1598</v>
+      </c>
+      <c r="E394" s="6">
+        <v>6103</v>
+      </c>
+      <c r="F394" s="6">
+        <v>2121</v>
+      </c>
+      <c r="G394" s="6">
+        <v>3711</v>
+      </c>
+      <c r="H394" s="6">
+        <v>5057</v>
+      </c>
+      <c r="I394" s="6">
+        <v>2247</v>
+      </c>
+      <c r="J394" s="7">
         <v>140</v>
       </c>
-      <c r="K394" s="5">
+      <c r="K394" s="7">
         <v>6</v>
       </c>
-      <c r="L394" s="5">
-        <v>3.0840000000000001</v>
-      </c>
-      <c r="M394" s="5">
-        <v>24.675999999999998</v>
+      <c r="L394" s="6">
+        <v>3084</v>
+      </c>
+      <c r="M394" s="6">
+        <v>24676</v>
+      </c>
+    </row>
+    <row r="395" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A395" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="396" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A396" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
